--- a/EXPORT_DATA/Tariff_2021_01.xlsx
+++ b/EXPORT_DATA/Tariff_2021_01.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Дата</t>
   </si>
@@ -28,6 +28,81 @@
   </si>
   <si>
     <t>Ставка на покупку электрической энергии, руб/МВт*ч</t>
+  </si>
+  <si>
+    <t>Ставка для фактических почасовых объемов покупки электрической энергии, отпущенных на уровне напряжения ВН</t>
+  </si>
+  <si>
+    <t>00:00-01:00</t>
+  </si>
+  <si>
+    <t>01:00-02:00</t>
+  </si>
+  <si>
+    <t>02:00-03:00</t>
+  </si>
+  <si>
+    <t>03:00-04:00</t>
+  </si>
+  <si>
+    <t>04:00-05:00</t>
+  </si>
+  <si>
+    <t>05:00-06:00</t>
+  </si>
+  <si>
+    <t>06:00-07:00</t>
+  </si>
+  <si>
+    <t>07:00-08:00</t>
+  </si>
+  <si>
+    <t>08:00-09:00</t>
+  </si>
+  <si>
+    <t>09:00-10:00</t>
+  </si>
+  <si>
+    <t>10:00-11:00</t>
+  </si>
+  <si>
+    <t>11:00-12:00</t>
+  </si>
+  <si>
+    <t>12:00-13:00</t>
+  </si>
+  <si>
+    <t>13:00-14:00</t>
+  </si>
+  <si>
+    <t>14:00-15:00</t>
+  </si>
+  <si>
+    <t>15:00-16:00</t>
+  </si>
+  <si>
+    <t>16:00-17:00</t>
+  </si>
+  <si>
+    <t>17:00-18:00</t>
+  </si>
+  <si>
+    <t>18:00-19:00</t>
+  </si>
+  <si>
+    <t>19:00-20:00</t>
+  </si>
+  <si>
+    <t>20:00-21:00</t>
+  </si>
+  <si>
+    <t>21:00-22:00</t>
+  </si>
+  <si>
+    <t>22:00-23:00</t>
+  </si>
+  <si>
+    <t>23:00-24:00</t>
   </si>
 </sst>
 </file>
@@ -551,7 +626,7 @@
         <v>44197</v>
       </c>
       <c r="B2">
-        <v>843343.5</v>
+        <v>893803.03</v>
       </c>
     </row>
   </sheetData>
@@ -579,768 +654,555 @@
       <c r="A2" s="3">
         <v>44197</v>
       </c>
-      <c r="B2">
-        <v>6590.762</v>
-      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3">
         <v>44197.04166666666</v>
       </c>
-      <c r="B3">
-        <v>6323.692</v>
-      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3">
         <v>44197.08333333334</v>
       </c>
-      <c r="B4">
-        <v>6361.602</v>
-      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3">
         <v>44197.125</v>
       </c>
-      <c r="B5">
-        <v>6280.162</v>
-      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3">
         <v>44197.16666666666</v>
       </c>
-      <c r="B6">
-        <v>6202.772</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3">
         <v>44197.20833333334</v>
       </c>
-      <c r="B7">
-        <v>6244.982</v>
-      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3">
         <v>44197.25</v>
       </c>
-      <c r="B8">
-        <v>6256.452</v>
-      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3">
         <v>44197.29166666666</v>
       </c>
-      <c r="B9">
-        <v>6233.772</v>
-      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3">
         <v>44197.33333333334</v>
       </c>
-      <c r="B10">
-        <v>6284.822</v>
-      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3">
         <v>44197.375</v>
       </c>
-      <c r="B11">
-        <v>6339.712</v>
-      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3">
         <v>44197.41666666666</v>
       </c>
-      <c r="B12">
-        <v>6389.782</v>
-      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3">
         <v>44197.45833333334</v>
       </c>
-      <c r="B13">
-        <v>6536.442</v>
-      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3">
         <v>44197.5</v>
       </c>
-      <c r="B14">
-        <v>6403.022</v>
-      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3">
         <v>44197.54166666666</v>
       </c>
-      <c r="B15">
-        <v>6539.942</v>
-      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3">
         <v>44197.58333333334</v>
       </c>
-      <c r="B16">
-        <v>6537.752</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="3">
         <v>44197.625</v>
       </c>
-      <c r="B17">
-        <v>6534.462</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="3">
         <v>44197.66666666666</v>
       </c>
-      <c r="B18">
-        <v>6521.292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="3">
         <v>44197.70833333334</v>
       </c>
-      <c r="B19">
-        <v>6617.052000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="3">
         <v>44197.75</v>
       </c>
-      <c r="B20">
-        <v>6740.702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="3">
         <v>44197.79166666666</v>
       </c>
-      <c r="B21">
-        <v>6735.382000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="3">
         <v>44197.83333333334</v>
       </c>
-      <c r="B22">
-        <v>6731.972000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="3">
         <v>44197.875</v>
       </c>
-      <c r="B23">
-        <v>6825.632000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="3">
         <v>44197.91666666666</v>
       </c>
-      <c r="B24">
-        <v>6745.902</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="3">
         <v>44197.95833333334</v>
       </c>
-      <c r="B25">
-        <v>6614.922</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="3">
         <v>44198</v>
       </c>
-      <c r="B26">
-        <v>6282.772</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="3">
         <v>44198.04166666666</v>
       </c>
-      <c r="B27">
-        <v>6162.712</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="3">
         <v>44198.08333333334</v>
       </c>
-      <c r="B28">
-        <v>6092.182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="3">
         <v>44198.125</v>
       </c>
-      <c r="B29">
-        <v>6086.022</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="3">
         <v>44198.16666666666</v>
       </c>
-      <c r="B30">
-        <v>6086.992</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="3">
         <v>44198.20833333334</v>
       </c>
-      <c r="B31">
-        <v>6115.872</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="3">
         <v>44198.25</v>
       </c>
-      <c r="B32">
-        <v>6194.942</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="3">
         <v>44198.29166666666</v>
       </c>
-      <c r="B33">
-        <v>6243.462</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="3">
         <v>44198.33333333334</v>
       </c>
-      <c r="B34">
-        <v>6321.822</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="3">
         <v>44198.375</v>
       </c>
-      <c r="B35">
-        <v>6692.652</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="3">
         <v>44198.41666666666</v>
       </c>
-      <c r="B36">
-        <v>6721.752</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" s="3">
         <v>44198.45833333334</v>
       </c>
-      <c r="B37">
-        <v>6737.072</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" s="3">
         <v>44198.5</v>
       </c>
-      <c r="B38">
-        <v>6736.092</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" s="3">
         <v>44198.54166666666</v>
       </c>
-      <c r="B39">
-        <v>6727.502</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" s="3">
         <v>44198.58333333334</v>
       </c>
-      <c r="B40">
-        <v>6725.572</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" s="3">
         <v>44198.625</v>
       </c>
-      <c r="B41">
-        <v>6730.572</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" s="3">
         <v>44198.66666666666</v>
       </c>
-      <c r="B42">
-        <v>6737.412</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" s="3">
         <v>44198.70833333334</v>
       </c>
-      <c r="B43">
-        <v>6763.892000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" s="3">
         <v>44198.75</v>
       </c>
-      <c r="B44">
-        <v>6830.242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" s="3">
         <v>44198.79166666666</v>
       </c>
-      <c r="B45">
-        <v>6862.562</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" s="3">
         <v>44198.83333333334</v>
       </c>
-      <c r="B46">
-        <v>6843.862</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" s="3">
         <v>44198.875</v>
       </c>
-      <c r="B47">
-        <v>6838.332</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" s="3">
         <v>44198.91666666666</v>
-      </c>
-      <c r="B48">
-        <v>6735.892000000001</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3">
         <v>44198.95833333334</v>
       </c>
-      <c r="B49">
-        <v>6627.202</v>
-      </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3">
         <v>44199</v>
       </c>
-      <c r="B50">
-        <v>6285.972000000001</v>
+      <c r="B50" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3">
         <v>44199.04166666666</v>
       </c>
-      <c r="B51">
-        <v>6128.332</v>
-      </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3">
         <v>44199.08333333334</v>
       </c>
-      <c r="B52">
-        <v>6090.872</v>
-      </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3">
         <v>44199.125</v>
       </c>
-      <c r="B53">
-        <v>6084.992</v>
-      </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="3">
         <v>44199.16666666666</v>
       </c>
-      <c r="B54">
-        <v>6087.842</v>
-      </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3">
         <v>44199.20833333334</v>
       </c>
-      <c r="B55">
-        <v>6109.462</v>
-      </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3">
         <v>44199.25</v>
       </c>
-      <c r="B56">
-        <v>6220.952</v>
-      </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3">
         <v>44199.29166666666</v>
       </c>
-      <c r="B57">
-        <v>6265.122</v>
-      </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3">
         <v>44199.33333333334</v>
       </c>
-      <c r="B58">
-        <v>6532.532</v>
-      </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3">
         <v>44199.375</v>
       </c>
-      <c r="B59">
-        <v>6726.442</v>
-      </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="3">
         <v>44199.41666666666</v>
       </c>
-      <c r="B60">
-        <v>6767.302000000001</v>
-      </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="3">
         <v>44199.45833333334</v>
       </c>
-      <c r="B61">
-        <v>6770.602</v>
-      </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="3">
         <v>44199.5</v>
       </c>
-      <c r="B62">
-        <v>6763.902</v>
-      </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="3">
         <v>44199.54166666666</v>
       </c>
-      <c r="B63">
-        <v>6757.092</v>
-      </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="3">
         <v>44199.58333333334</v>
       </c>
-      <c r="B64">
-        <v>6756.052000000001</v>
-      </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="3">
         <v>44199.625</v>
       </c>
-      <c r="B65">
-        <v>6772.892000000001</v>
-      </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="3">
         <v>44199.66666666666</v>
       </c>
-      <c r="B66">
-        <v>6781.672</v>
-      </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="3">
         <v>44199.70833333334</v>
       </c>
-      <c r="B67">
-        <v>6816.892000000001</v>
-      </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="3">
         <v>44199.75</v>
       </c>
-      <c r="B68">
-        <v>6846.552000000001</v>
-      </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="3">
         <v>44199.79166666666</v>
       </c>
-      <c r="B69">
-        <v>6839.342</v>
-      </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3">
         <v>44199.83333333334</v>
       </c>
-      <c r="B70">
-        <v>6831.092</v>
-      </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="3">
         <v>44199.875</v>
       </c>
-      <c r="B71">
-        <v>6816.412</v>
-      </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="3">
         <v>44199.91666666666</v>
       </c>
-      <c r="B72">
-        <v>6711.052000000001</v>
-      </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="3">
         <v>44199.95833333334</v>
       </c>
-      <c r="B73">
-        <v>6339.212</v>
-      </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="3">
         <v>44200</v>
       </c>
-      <c r="B74">
-        <v>6269.312</v>
+      <c r="B74" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="3">
         <v>44200.04166666666</v>
       </c>
-      <c r="B75">
-        <v>6178.922</v>
+      <c r="B75" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="3">
         <v>44200.08333333334</v>
       </c>
-      <c r="B76">
-        <v>6107.102</v>
+      <c r="B76" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="3">
         <v>44200.125</v>
       </c>
-      <c r="B77">
-        <v>6092.872</v>
+      <c r="B77" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="3">
         <v>44200.16666666666</v>
       </c>
-      <c r="B78">
-        <v>6099.402</v>
+      <c r="B78" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="3">
         <v>44200.20833333334</v>
       </c>
-      <c r="B79">
-        <v>6145.712</v>
+      <c r="B79" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="3">
         <v>44200.25</v>
       </c>
-      <c r="B80">
-        <v>6237.022</v>
+      <c r="B80" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="3">
         <v>44200.29166666666</v>
       </c>
-      <c r="B81">
-        <v>6287.322</v>
+      <c r="B81" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="3">
         <v>44200.33333333334</v>
       </c>
-      <c r="B82">
-        <v>6640.562</v>
+      <c r="B82" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3">
         <v>44200.375</v>
       </c>
-      <c r="B83">
-        <v>6790.102</v>
+      <c r="B83" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="3">
         <v>44200.41666666666</v>
       </c>
-      <c r="B84">
-        <v>6856.742</v>
+      <c r="B84" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="3">
         <v>44200.45833333334</v>
       </c>
-      <c r="B85">
-        <v>6854.232</v>
+      <c r="B85" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="3">
         <v>44200.5</v>
       </c>
-      <c r="B86">
-        <v>6849.362</v>
+      <c r="B86" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="3">
         <v>44200.54166666666</v>
       </c>
-      <c r="B87">
-        <v>6839.012</v>
+      <c r="B87" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="3">
         <v>44200.58333333334</v>
       </c>
-      <c r="B88">
-        <v>6836.682</v>
+      <c r="B88" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="3">
         <v>44200.625</v>
       </c>
-      <c r="B89">
-        <v>6842.102</v>
+      <c r="B89" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="3">
         <v>44200.66666666666</v>
       </c>
-      <c r="B90">
-        <v>6836.812</v>
+      <c r="B90" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="3">
         <v>44200.70833333334</v>
       </c>
-      <c r="B91">
-        <v>6875.422</v>
+      <c r="B91" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="3">
         <v>44200.75</v>
       </c>
-      <c r="B92">
-        <v>6890.302000000001</v>
+      <c r="B92" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="3">
         <v>44200.79166666666</v>
       </c>
-      <c r="B93">
-        <v>6876.342</v>
+      <c r="B93" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="3">
         <v>44200.83333333334</v>
       </c>
-      <c r="B94">
-        <v>6863.862</v>
+      <c r="B94" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="3">
         <v>44200.875</v>
       </c>
-      <c r="B95">
-        <v>6860.822</v>
+      <c r="B95" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="3">
         <v>44200.91666666666</v>
       </c>
-      <c r="B96">
-        <v>6732.142000000001</v>
+      <c r="B96" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="3">
         <v>44200.95833333334</v>
       </c>
-      <c r="B97">
-        <v>6476.782</v>
+      <c r="B97" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1348,7 +1210,7 @@
         <v>44201</v>
       </c>
       <c r="B98">
-        <v>6320.422</v>
+        <v>3553.652</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1356,7 +1218,7 @@
         <v>44201.04166666666</v>
       </c>
       <c r="B99">
-        <v>6212.272</v>
+        <v>3286.582</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1364,7 +1226,7 @@
         <v>44201.08333333334</v>
       </c>
       <c r="B100">
-        <v>6129.032</v>
+        <v>3324.492</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1372,7 +1234,7 @@
         <v>44201.125</v>
       </c>
       <c r="B101">
-        <v>6104.992</v>
+        <v>3243.052000000001</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1380,7 +1242,7 @@
         <v>44201.16666666666</v>
       </c>
       <c r="B102">
-        <v>6116.562</v>
+        <v>3165.662</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1388,7 +1250,7 @@
         <v>44201.20833333334</v>
       </c>
       <c r="B103">
-        <v>6179.862</v>
+        <v>3207.872</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1396,7 +1258,7 @@
         <v>44201.25</v>
       </c>
       <c r="B104">
-        <v>6261.102</v>
+        <v>3219.342000000001</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1404,7 +1266,7 @@
         <v>44201.29166666666</v>
       </c>
       <c r="B105">
-        <v>6338.202</v>
+        <v>3196.662</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1412,7 +1274,7 @@
         <v>44201.33333333334</v>
       </c>
       <c r="B106">
-        <v>6712.442</v>
+        <v>3247.712</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1420,7 +1282,7 @@
         <v>44201.375</v>
       </c>
       <c r="B107">
-        <v>6800.462</v>
+        <v>3302.602</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1428,7 +1290,7 @@
         <v>44201.41666666666</v>
       </c>
       <c r="B108">
-        <v>6819.212</v>
+        <v>3352.672</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1436,7 +1298,7 @@
         <v>44201.45833333334</v>
       </c>
       <c r="B109">
-        <v>6806.502</v>
+        <v>3499.332</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1444,7 +1306,7 @@
         <v>44201.5</v>
       </c>
       <c r="B110">
-        <v>6789.972000000001</v>
+        <v>3365.912</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1452,7 +1314,7 @@
         <v>44201.54166666666</v>
       </c>
       <c r="B111">
-        <v>6789.512</v>
+        <v>3502.832</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1460,7 +1322,7 @@
         <v>44201.58333333334</v>
       </c>
       <c r="B112">
-        <v>6788.262</v>
+        <v>3500.642</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1468,7 +1330,7 @@
         <v>44201.625</v>
       </c>
       <c r="B113">
-        <v>6794.352</v>
+        <v>3497.352</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1476,7 +1338,7 @@
         <v>44201.66666666666</v>
       </c>
       <c r="B114">
-        <v>6796.592</v>
+        <v>3484.182</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1484,7 +1346,7 @@
         <v>44201.70833333334</v>
       </c>
       <c r="B115">
-        <v>6828.802000000001</v>
+        <v>3579.942</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1492,7 +1354,7 @@
         <v>44201.75</v>
       </c>
       <c r="B116">
-        <v>6855.422</v>
+        <v>3703.592000000001</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1500,7 +1362,7 @@
         <v>44201.79166666666</v>
       </c>
       <c r="B117">
-        <v>6863.522</v>
+        <v>3698.272</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1508,7 +1370,7 @@
         <v>44201.83333333334</v>
       </c>
       <c r="B118">
-        <v>6815.502</v>
+        <v>3694.862</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1516,7 +1378,7 @@
         <v>44201.875</v>
       </c>
       <c r="B119">
-        <v>6838.912</v>
+        <v>3788.522</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1524,7 +1386,7 @@
         <v>44201.91666666666</v>
       </c>
       <c r="B120">
-        <v>6729.122</v>
+        <v>3708.792</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1532,7 +1394,7 @@
         <v>44201.95833333334</v>
       </c>
       <c r="B121">
-        <v>6612.832</v>
+        <v>3577.812</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1540,7 +1402,7 @@
         <v>44202</v>
       </c>
       <c r="B122">
-        <v>6339.772</v>
+        <v>3245.662</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1548,7 +1410,7 @@
         <v>44202.04166666666</v>
       </c>
       <c r="B123">
-        <v>6238.822</v>
+        <v>3125.602</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1556,7 +1418,7 @@
         <v>44202.08333333334</v>
       </c>
       <c r="B124">
-        <v>6098.602</v>
+        <v>3055.072</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1564,7 +1426,7 @@
         <v>44202.125</v>
       </c>
       <c r="B125">
-        <v>6091.552000000001</v>
+        <v>3048.912</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1572,7 +1434,7 @@
         <v>44202.16666666666</v>
       </c>
       <c r="B126">
-        <v>6092.902</v>
+        <v>3049.882000000001</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1580,7 +1442,7 @@
         <v>44202.20833333334</v>
       </c>
       <c r="B127">
-        <v>6124.892000000001</v>
+        <v>3078.762</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1588,7 +1450,7 @@
         <v>44202.25</v>
       </c>
       <c r="B128">
-        <v>6254.682</v>
+        <v>3157.832</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1596,7 +1458,7 @@
         <v>44202.29166666666</v>
       </c>
       <c r="B129">
-        <v>6299.662</v>
+        <v>3206.352</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1604,7 +1466,7 @@
         <v>44202.33333333334</v>
       </c>
       <c r="B130">
-        <v>6686.102</v>
+        <v>3284.712</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1612,7 +1474,7 @@
         <v>44202.375</v>
       </c>
       <c r="B131">
-        <v>6754.782</v>
+        <v>3655.542</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1620,7 +1482,7 @@
         <v>44202.41666666666</v>
       </c>
       <c r="B132">
-        <v>6754.222000000001</v>
+        <v>3684.642</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1628,7 +1490,7 @@
         <v>44202.45833333334</v>
       </c>
       <c r="B133">
-        <v>6759.962</v>
+        <v>3699.962</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1636,7 +1498,7 @@
         <v>44202.5</v>
       </c>
       <c r="B134">
-        <v>6748.012</v>
+        <v>3698.982</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1644,7 +1506,7 @@
         <v>44202.54166666666</v>
       </c>
       <c r="B135">
-        <v>6741.072</v>
+        <v>3690.392</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1652,7 +1514,7 @@
         <v>44202.58333333334</v>
       </c>
       <c r="B136">
-        <v>6738.912</v>
+        <v>3688.462</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1660,7 +1522,7 @@
         <v>44202.625</v>
       </c>
       <c r="B137">
-        <v>6743.242</v>
+        <v>3693.462</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1668,7 +1530,7 @@
         <v>44202.66666666666</v>
       </c>
       <c r="B138">
-        <v>6754.172</v>
+        <v>3700.302000000001</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1676,7 +1538,7 @@
         <v>44202.70833333334</v>
       </c>
       <c r="B139">
-        <v>6780.752</v>
+        <v>3726.782</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1684,7 +1546,7 @@
         <v>44202.75</v>
       </c>
       <c r="B140">
-        <v>6821.592</v>
+        <v>3793.132000000001</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1692,7 +1554,7 @@
         <v>44202.79166666666</v>
       </c>
       <c r="B141">
-        <v>6852.502</v>
+        <v>3825.452</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1700,7 +1562,7 @@
         <v>44202.83333333334</v>
       </c>
       <c r="B142">
-        <v>6797.252</v>
+        <v>3806.752</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1708,7 +1570,7 @@
         <v>44202.875</v>
       </c>
       <c r="B143">
-        <v>6777.572</v>
+        <v>3801.222</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1716,7 +1578,7 @@
         <v>44202.91666666666</v>
       </c>
       <c r="B144">
-        <v>6729.232</v>
+        <v>3698.782</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1724,7 +1586,7 @@
         <v>44202.95833333334</v>
       </c>
       <c r="B145">
-        <v>6678.002</v>
+        <v>3590.092000000001</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1732,7 +1594,7 @@
         <v>44203</v>
       </c>
       <c r="B146">
-        <v>6336.192</v>
+        <v>3248.862</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1740,7 +1602,7 @@
         <v>44203.04166666666</v>
       </c>
       <c r="B147">
-        <v>6223.002</v>
+        <v>3091.222</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1748,7 +1610,7 @@
         <v>44203.08333333334</v>
       </c>
       <c r="B148">
-        <v>6085.832</v>
+        <v>3053.762</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1756,7 +1618,7 @@
         <v>44203.125</v>
       </c>
       <c r="B149">
-        <v>6080.322</v>
+        <v>3047.882000000001</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1764,7 +1626,7 @@
         <v>44203.16666666666</v>
       </c>
       <c r="B150">
-        <v>6080.892000000001</v>
+        <v>3050.732</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1772,7 +1634,7 @@
         <v>44203.20833333334</v>
       </c>
       <c r="B151">
-        <v>6104.952</v>
+        <v>3072.352</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1780,7 +1642,7 @@
         <v>44203.25</v>
       </c>
       <c r="B152">
-        <v>6196.492</v>
+        <v>3183.842000000001</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1788,7 +1650,7 @@
         <v>44203.29166666666</v>
       </c>
       <c r="B153">
-        <v>6235.582</v>
+        <v>3228.012</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1796,7 +1658,7 @@
         <v>44203.33333333334</v>
       </c>
       <c r="B154">
-        <v>6293.342</v>
+        <v>3495.422</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1804,7 +1666,7 @@
         <v>44203.375</v>
       </c>
       <c r="B155">
-        <v>6665.912</v>
+        <v>3689.332</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1812,7 +1674,7 @@
         <v>44203.41666666666</v>
       </c>
       <c r="B156">
-        <v>6706.352</v>
+        <v>3730.192</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1820,7 +1682,7 @@
         <v>44203.45833333334</v>
       </c>
       <c r="B157">
-        <v>6724.222000000001</v>
+        <v>3733.492</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1828,7 +1690,7 @@
         <v>44203.5</v>
       </c>
       <c r="B158">
-        <v>6698.422</v>
+        <v>3726.792</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1836,7 +1698,7 @@
         <v>44203.54166666666</v>
       </c>
       <c r="B159">
-        <v>6700.282</v>
+        <v>3719.982</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1844,7 +1706,7 @@
         <v>44203.58333333334</v>
       </c>
       <c r="B160">
-        <v>6717.672</v>
+        <v>3718.942</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1852,7 +1714,7 @@
         <v>44203.625</v>
       </c>
       <c r="B161">
-        <v>6695.452</v>
+        <v>3735.782</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1860,7 +1722,7 @@
         <v>44203.66666666666</v>
       </c>
       <c r="B162">
-        <v>6730.452</v>
+        <v>3744.562</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1868,7 +1730,7 @@
         <v>44203.70833333334</v>
       </c>
       <c r="B163">
-        <v>6980.772</v>
+        <v>3779.782</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1876,7 +1738,7 @@
         <v>44203.75</v>
       </c>
       <c r="B164">
-        <v>6984.812</v>
+        <v>3809.442</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1884,7 +1746,7 @@
         <v>44203.79166666666</v>
       </c>
       <c r="B165">
-        <v>6952.672</v>
+        <v>3802.232</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1892,7 +1754,7 @@
         <v>44203.83333333334</v>
       </c>
       <c r="B166">
-        <v>6781.152</v>
+        <v>3793.982</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1900,7 +1762,7 @@
         <v>44203.875</v>
       </c>
       <c r="B167">
-        <v>6729.332</v>
+        <v>3779.302000000001</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1908,7 +1770,7 @@
         <v>44203.91666666666</v>
       </c>
       <c r="B168">
-        <v>6689.102</v>
+        <v>3673.942</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1916,7 +1778,7 @@
         <v>44203.95833333334</v>
       </c>
       <c r="B169">
-        <v>6384.882000000001</v>
+        <v>3302.102</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1924,7 +1786,7 @@
         <v>44204</v>
       </c>
       <c r="B170">
-        <v>6320.942</v>
+        <v>3232.202</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1932,7 +1794,7 @@
         <v>44204.04166666666</v>
       </c>
       <c r="B171">
-        <v>6218.962</v>
+        <v>3141.812</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1940,7 +1802,7 @@
         <v>44204.08333333334</v>
       </c>
       <c r="B172">
-        <v>6064.522</v>
+        <v>3069.992</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1948,7 +1810,7 @@
         <v>44204.125</v>
       </c>
       <c r="B173">
-        <v>5983.292</v>
+        <v>3055.762</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1956,7 +1818,7 @@
         <v>44204.16666666666</v>
       </c>
       <c r="B174">
-        <v>5981.022</v>
+        <v>3062.292</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1964,7 +1826,7 @@
         <v>44204.20833333334</v>
       </c>
       <c r="B175">
-        <v>6042.512</v>
+        <v>3108.602</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1972,7 +1834,7 @@
         <v>44204.25</v>
       </c>
       <c r="B176">
-        <v>6158.742</v>
+        <v>3199.912</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1980,7 +1842,7 @@
         <v>44204.29166666666</v>
       </c>
       <c r="B177">
-        <v>6226.922</v>
+        <v>3250.212</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1988,7 +1850,7 @@
         <v>44204.33333333334</v>
       </c>
       <c r="B178">
-        <v>6318.342</v>
+        <v>3603.452</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1996,7 +1858,7 @@
         <v>44204.375</v>
       </c>
       <c r="B179">
-        <v>6682.082</v>
+        <v>3752.992</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2004,7 +1866,7 @@
         <v>44204.41666666666</v>
       </c>
       <c r="B180">
-        <v>6701.792</v>
+        <v>3819.632000000001</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2012,7 +1874,7 @@
         <v>44204.45833333334</v>
       </c>
       <c r="B181">
-        <v>6709.112</v>
+        <v>3817.122</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2020,7 +1882,7 @@
         <v>44204.5</v>
       </c>
       <c r="B182">
-        <v>6704.222000000001</v>
+        <v>3812.252</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2028,7 +1890,7 @@
         <v>44204.54166666666</v>
       </c>
       <c r="B183">
-        <v>6711.312</v>
+        <v>3801.902</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2036,7 +1898,7 @@
         <v>44204.58333333334</v>
       </c>
       <c r="B184">
-        <v>6711.122</v>
+        <v>3799.572</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2044,7 +1906,7 @@
         <v>44204.625</v>
       </c>
       <c r="B185">
-        <v>6713.212</v>
+        <v>3804.992</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2052,7 +1914,7 @@
         <v>44204.66666666666</v>
       </c>
       <c r="B186">
-        <v>6720.752</v>
+        <v>3799.702</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2060,7 +1922,7 @@
         <v>44204.70833333334</v>
       </c>
       <c r="B187">
-        <v>6829.252</v>
+        <v>3838.312</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2068,7 +1930,7 @@
         <v>44204.75</v>
       </c>
       <c r="B188">
-        <v>6865.412</v>
+        <v>3853.192</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2076,7 +1938,7 @@
         <v>44204.79166666666</v>
       </c>
       <c r="B189">
-        <v>6880.672</v>
+        <v>3839.232</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2084,7 +1946,7 @@
         <v>44204.83333333334</v>
       </c>
       <c r="B190">
-        <v>6796.012</v>
+        <v>3826.752</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2092,7 +1954,7 @@
         <v>44204.875</v>
       </c>
       <c r="B191">
-        <v>6776.152</v>
+        <v>3823.712</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2100,7 +1962,7 @@
         <v>44204.91666666666</v>
       </c>
       <c r="B192">
-        <v>6706.432</v>
+        <v>3695.032</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2108,7 +1970,7 @@
         <v>44204.95833333334</v>
       </c>
       <c r="B193">
-        <v>6335.892000000001</v>
+        <v>3439.672</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2116,7 +1978,7 @@
         <v>44205</v>
       </c>
       <c r="B194">
-        <v>6244.892000000001</v>
+        <v>3283.312</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2124,7 +1986,7 @@
         <v>44205.04166666666</v>
       </c>
       <c r="B195">
-        <v>6086.432</v>
+        <v>3175.162</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2132,7 +1994,7 @@
         <v>44205.08333333334</v>
       </c>
       <c r="B196">
-        <v>6048.482</v>
+        <v>3091.922</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2140,7 +2002,7 @@
         <v>44205.125</v>
       </c>
       <c r="B197">
-        <v>6018.072</v>
+        <v>3067.882000000001</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2148,7 +2010,7 @@
         <v>44205.16666666666</v>
       </c>
       <c r="B198">
-        <v>6024.952</v>
+        <v>3079.452</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2156,7 +2018,7 @@
         <v>44205.20833333334</v>
       </c>
       <c r="B199">
-        <v>6072.542</v>
+        <v>3142.752</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2164,7 +2026,7 @@
         <v>44205.25</v>
       </c>
       <c r="B200">
-        <v>6183.682</v>
+        <v>3223.992</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2172,7 +2034,7 @@
         <v>44205.29166666666</v>
       </c>
       <c r="B201">
-        <v>6235.552000000001</v>
+        <v>3301.092000000001</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2180,7 +2042,7 @@
         <v>44205.33333333334</v>
       </c>
       <c r="B202">
-        <v>6354.952</v>
+        <v>3675.332</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2188,7 +2050,7 @@
         <v>44205.375</v>
       </c>
       <c r="B203">
-        <v>6701.912</v>
+        <v>3763.352</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2196,7 +2058,7 @@
         <v>44205.41666666666</v>
       </c>
       <c r="B204">
-        <v>6731.792</v>
+        <v>3782.102</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2204,7 +2066,7 @@
         <v>44205.45833333334</v>
       </c>
       <c r="B205">
-        <v>6729.852</v>
+        <v>3769.392</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2212,7 +2074,7 @@
         <v>44205.5</v>
       </c>
       <c r="B206">
-        <v>6722.912</v>
+        <v>3752.862</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2220,7 +2082,7 @@
         <v>44205.54166666666</v>
       </c>
       <c r="B207">
-        <v>6710.952</v>
+        <v>3752.402</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2228,7 +2090,7 @@
         <v>44205.58333333334</v>
       </c>
       <c r="B208">
-        <v>6703.252</v>
+        <v>3751.152</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2236,7 +2098,7 @@
         <v>44205.625</v>
       </c>
       <c r="B209">
-        <v>6705.472000000001</v>
+        <v>3757.242</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2244,7 +2106,7 @@
         <v>44205.66666666666</v>
       </c>
       <c r="B210">
-        <v>6714.882000000001</v>
+        <v>3759.482</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2252,7 +2114,7 @@
         <v>44205.70833333334</v>
       </c>
       <c r="B211">
-        <v>6750.612</v>
+        <v>3791.692</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2260,7 +2122,7 @@
         <v>44205.75</v>
       </c>
       <c r="B212">
-        <v>6901.152</v>
+        <v>3818.312</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2268,7 +2130,7 @@
         <v>44205.79166666666</v>
       </c>
       <c r="B213">
-        <v>6867.822</v>
+        <v>3826.412</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2276,7 +2138,7 @@
         <v>44205.83333333334</v>
       </c>
       <c r="B214">
-        <v>6861.092</v>
+        <v>3778.392</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2284,7 +2146,7 @@
         <v>44205.875</v>
       </c>
       <c r="B215">
-        <v>6853.512</v>
+        <v>3801.802000000001</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2292,7 +2154,7 @@
         <v>44205.91666666666</v>
       </c>
       <c r="B216">
-        <v>6692.512</v>
+        <v>3692.012</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2300,7 +2162,7 @@
         <v>44205.95833333334</v>
       </c>
       <c r="B217">
-        <v>6330.522</v>
+        <v>3575.722</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2308,7 +2170,7 @@
         <v>44206</v>
       </c>
       <c r="B218">
-        <v>6279.102</v>
+        <v>3302.662</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2316,7 +2178,7 @@
         <v>44206.04166666666</v>
       </c>
       <c r="B219">
-        <v>6121.162</v>
+        <v>3201.712</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2324,7 +2186,7 @@
         <v>44206.08333333334</v>
       </c>
       <c r="B220">
-        <v>6072.712</v>
+        <v>3061.492</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2332,7 +2194,7 @@
         <v>44206.125</v>
       </c>
       <c r="B221">
-        <v>6038.732</v>
+        <v>3054.442</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2340,7 +2202,7 @@
         <v>44206.16666666666</v>
       </c>
       <c r="B222">
-        <v>6052.752</v>
+        <v>3055.792</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2348,7 +2210,7 @@
         <v>44206.20833333334</v>
       </c>
       <c r="B223">
-        <v>6087.832</v>
+        <v>3087.782</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2356,7 +2218,7 @@
         <v>44206.25</v>
       </c>
       <c r="B224">
-        <v>6202.832</v>
+        <v>3217.572</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2364,7 +2226,7 @@
         <v>44206.29166666666</v>
       </c>
       <c r="B225">
-        <v>6271.562</v>
+        <v>3262.552000000001</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2372,7 +2234,7 @@
         <v>44206.33333333334</v>
       </c>
       <c r="B226">
-        <v>6408.492</v>
+        <v>3648.992</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2380,7 +2242,7 @@
         <v>44206.375</v>
       </c>
       <c r="B227">
-        <v>6741.842</v>
+        <v>3717.672</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2388,7 +2250,7 @@
         <v>44206.41666666666</v>
       </c>
       <c r="B228">
-        <v>6804.362</v>
+        <v>3717.112</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2396,7 +2258,7 @@
         <v>44206.45833333334</v>
       </c>
       <c r="B229">
-        <v>6822.152</v>
+        <v>3722.852</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2404,7 +2266,7 @@
         <v>44206.5</v>
       </c>
       <c r="B230">
-        <v>6815.482</v>
+        <v>3710.902</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2412,7 +2274,7 @@
         <v>44206.54166666666</v>
       </c>
       <c r="B231">
-        <v>6809.672</v>
+        <v>3703.962</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2420,7 +2282,7 @@
         <v>44206.58333333334</v>
       </c>
       <c r="B232">
-        <v>6804.292</v>
+        <v>3701.802000000001</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2428,7 +2290,7 @@
         <v>44206.625</v>
       </c>
       <c r="B233">
-        <v>6800.202</v>
+        <v>3706.132000000001</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2436,7 +2298,7 @@
         <v>44206.66666666666</v>
       </c>
       <c r="B234">
-        <v>6804.772</v>
+        <v>3717.062</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2444,7 +2306,7 @@
         <v>44206.70833333334</v>
       </c>
       <c r="B235">
-        <v>6825.032</v>
+        <v>3743.642</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2452,7 +2314,7 @@
         <v>44206.75</v>
       </c>
       <c r="B236">
-        <v>6877.762</v>
+        <v>3784.482</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2460,7 +2322,7 @@
         <v>44206.79166666666</v>
       </c>
       <c r="B237">
-        <v>6876.962</v>
+        <v>3815.392</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2468,7 +2330,7 @@
         <v>44206.83333333334</v>
       </c>
       <c r="B238">
-        <v>6875.392000000001</v>
+        <v>3760.142</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2476,7 +2338,7 @@
         <v>44206.875</v>
       </c>
       <c r="B239">
-        <v>6871.222000000001</v>
+        <v>3740.462</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2484,7 +2346,7 @@
         <v>44206.91666666666</v>
       </c>
       <c r="B240">
-        <v>6775.532</v>
+        <v>3692.122</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2492,7 +2354,7 @@
         <v>44206.95833333334</v>
       </c>
       <c r="B241">
-        <v>6690.572</v>
+        <v>3640.892</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2500,7 +2362,7 @@
         <v>44207</v>
       </c>
       <c r="B242">
-        <v>6239.432</v>
+        <v>3299.082</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2508,7 +2370,7 @@
         <v>44207.04166666666</v>
       </c>
       <c r="B243">
-        <v>6093.402</v>
+        <v>3185.892</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2516,7 +2378,7 @@
         <v>44207.08333333334</v>
       </c>
       <c r="B244">
-        <v>6048.832</v>
+        <v>3048.722</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2524,7 +2386,7 @@
         <v>44207.125</v>
       </c>
       <c r="B245">
-        <v>6030.952</v>
+        <v>3043.212</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2532,7 +2394,7 @@
         <v>44207.16666666666</v>
       </c>
       <c r="B246">
-        <v>6049.572</v>
+        <v>3043.782</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2540,7 +2402,7 @@
         <v>44207.20833333334</v>
       </c>
       <c r="B247">
-        <v>6134.262</v>
+        <v>3067.842000000001</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2548,7 +2410,7 @@
         <v>44207.25</v>
       </c>
       <c r="B248">
-        <v>6308.202</v>
+        <v>3159.382000000001</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2556,7 +2418,7 @@
         <v>44207.29166666666</v>
       </c>
       <c r="B249">
-        <v>6546.322</v>
+        <v>3198.472</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2564,7 +2426,7 @@
         <v>44207.33333333334</v>
       </c>
       <c r="B250">
-        <v>6745.122</v>
+        <v>3256.232</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2572,7 +2434,7 @@
         <v>44207.375</v>
       </c>
       <c r="B251">
-        <v>6847.532</v>
+        <v>3628.802000000001</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2580,7 +2442,7 @@
         <v>44207.41666666666</v>
       </c>
       <c r="B252">
-        <v>6851.982</v>
+        <v>3669.242</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2588,7 +2450,7 @@
         <v>44207.45833333334</v>
       </c>
       <c r="B253">
-        <v>6849.822</v>
+        <v>3687.112</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2596,7 +2458,7 @@
         <v>44207.5</v>
       </c>
       <c r="B254">
-        <v>6846.372</v>
+        <v>3661.312</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2604,7 +2466,7 @@
         <v>44207.54166666666</v>
       </c>
       <c r="B255">
-        <v>6844.902</v>
+        <v>3663.172</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2612,7 +2474,7 @@
         <v>44207.58333333334</v>
       </c>
       <c r="B256">
-        <v>6865.622</v>
+        <v>3680.562</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2620,7 +2482,7 @@
         <v>44207.625</v>
       </c>
       <c r="B257">
-        <v>6867.002</v>
+        <v>3658.342000000001</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2628,7 +2490,7 @@
         <v>44207.66666666666</v>
       </c>
       <c r="B258">
-        <v>6862.092</v>
+        <v>3693.342000000001</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2636,7 +2498,7 @@
         <v>44207.70833333334</v>
       </c>
       <c r="B259">
-        <v>6889.222000000001</v>
+        <v>3943.662</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2644,7 +2506,7 @@
         <v>44207.75</v>
       </c>
       <c r="B260">
-        <v>6893.442</v>
+        <v>3947.702</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2652,7 +2514,7 @@
         <v>44207.79166666666</v>
       </c>
       <c r="B261">
-        <v>6887.492</v>
+        <v>3915.562</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2660,7 +2522,7 @@
         <v>44207.83333333334</v>
       </c>
       <c r="B262">
-        <v>6878.412</v>
+        <v>3744.042</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2668,7 +2530,7 @@
         <v>44207.875</v>
       </c>
       <c r="B263">
-        <v>6838.742</v>
+        <v>3692.222</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2676,7 +2538,7 @@
         <v>44207.91666666666</v>
       </c>
       <c r="B264">
-        <v>6622.312</v>
+        <v>3651.992</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2684,7 +2546,7 @@
         <v>44207.95833333334</v>
       </c>
       <c r="B265">
-        <v>6316.572</v>
+        <v>3347.772</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2692,7 +2554,7 @@
         <v>44208</v>
       </c>
       <c r="B266">
-        <v>6084.772</v>
+        <v>3283.832</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2700,7 +2562,7 @@
         <v>44208.04166666666</v>
       </c>
       <c r="B267">
-        <v>5913.882000000001</v>
+        <v>3181.852</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2708,7 +2570,7 @@
         <v>44208.08333333334</v>
       </c>
       <c r="B268">
-        <v>5910.142</v>
+        <v>3027.412</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2716,7 +2578,7 @@
         <v>44208.125</v>
       </c>
       <c r="B269">
-        <v>5889.402</v>
+        <v>2946.182</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2724,7 +2586,7 @@
         <v>44208.16666666666</v>
       </c>
       <c r="B270">
-        <v>5990.572</v>
+        <v>2943.912</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2732,7 +2594,7 @@
         <v>44208.20833333334</v>
       </c>
       <c r="B271">
-        <v>6118.102</v>
+        <v>3005.402</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2740,7 +2602,7 @@
         <v>44208.25</v>
       </c>
       <c r="B272">
-        <v>6315.412</v>
+        <v>3121.632000000001</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2748,7 +2610,7 @@
         <v>44208.29166666666</v>
       </c>
       <c r="B273">
-        <v>6557.272</v>
+        <v>3189.812</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2756,7 +2618,7 @@
         <v>44208.33333333334</v>
       </c>
       <c r="B274">
-        <v>6694.222000000001</v>
+        <v>3281.232</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2764,7 +2626,7 @@
         <v>44208.375</v>
       </c>
       <c r="B275">
-        <v>6765.342</v>
+        <v>3644.972</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2772,7 +2634,7 @@
         <v>44208.41666666666</v>
       </c>
       <c r="B276">
-        <v>6782.672</v>
+        <v>3664.682</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2780,7 +2642,7 @@
         <v>44208.45833333334</v>
       </c>
       <c r="B277">
-        <v>6771.732</v>
+        <v>3672.002</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2788,7 +2650,7 @@
         <v>44208.5</v>
       </c>
       <c r="B278">
-        <v>6759.952</v>
+        <v>3667.112</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2796,7 +2658,7 @@
         <v>44208.54166666666</v>
       </c>
       <c r="B279">
-        <v>6766.712</v>
+        <v>3674.202</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2804,7 +2666,7 @@
         <v>44208.58333333334</v>
       </c>
       <c r="B280">
-        <v>6757.502</v>
+        <v>3674.012</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2812,7 +2674,7 @@
         <v>44208.625</v>
       </c>
       <c r="B281">
-        <v>6755.152</v>
+        <v>3676.102</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2820,7 +2682,7 @@
         <v>44208.66666666666</v>
       </c>
       <c r="B282">
-        <v>6737.482</v>
+        <v>3683.642</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2828,7 +2690,7 @@
         <v>44208.70833333334</v>
       </c>
       <c r="B283">
-        <v>6748.562</v>
+        <v>3792.142</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2836,7 +2698,7 @@
         <v>44208.75</v>
       </c>
       <c r="B284">
-        <v>6781.892000000001</v>
+        <v>3828.302000000001</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2844,7 +2706,7 @@
         <v>44208.79166666666</v>
       </c>
       <c r="B285">
-        <v>6776.072</v>
+        <v>3843.562</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2852,7 +2714,7 @@
         <v>44208.83333333334</v>
       </c>
       <c r="B286">
-        <v>6764.372</v>
+        <v>3758.902</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2860,7 +2722,7 @@
         <v>44208.875</v>
       </c>
       <c r="B287">
-        <v>6735.342</v>
+        <v>3739.042</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2868,7 +2730,7 @@
         <v>44208.91666666666</v>
       </c>
       <c r="B288">
-        <v>6536.252</v>
+        <v>3669.322</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2876,7 +2738,7 @@
         <v>44208.95833333334</v>
       </c>
       <c r="B289">
-        <v>6259.852</v>
+        <v>3298.782</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2884,7 +2746,7 @@
         <v>44209</v>
       </c>
       <c r="B290">
-        <v>6050.152</v>
+        <v>3207.782</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2892,7 +2754,7 @@
         <v>44209.04166666666</v>
       </c>
       <c r="B291">
-        <v>5903.232</v>
+        <v>3049.322</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2900,7 +2762,7 @@
         <v>44209.08333333334</v>
       </c>
       <c r="B292">
-        <v>5896.662</v>
+        <v>3011.372</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2908,7 +2770,7 @@
         <v>44209.125</v>
       </c>
       <c r="B293">
-        <v>5880.572</v>
+        <v>2980.962</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2916,7 +2778,7 @@
         <v>44209.16666666666</v>
       </c>
       <c r="B294">
-        <v>5929.302000000001</v>
+        <v>2987.842000000001</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2924,7 +2786,7 @@
         <v>44209.20833333334</v>
       </c>
       <c r="B295">
-        <v>6078.672</v>
+        <v>3035.432</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2932,7 +2794,7 @@
         <v>44209.25</v>
       </c>
       <c r="B296">
-        <v>6271.192</v>
+        <v>3146.572</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2940,7 +2802,7 @@
         <v>44209.29166666666</v>
       </c>
       <c r="B297">
-        <v>6542.642000000001</v>
+        <v>3198.442</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2948,7 +2810,7 @@
         <v>44209.33333333334</v>
       </c>
       <c r="B298">
-        <v>6725.602</v>
+        <v>3317.842000000001</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2956,7 +2818,7 @@
         <v>44209.375</v>
       </c>
       <c r="B299">
-        <v>6782.082</v>
+        <v>3664.802000000001</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2964,7 +2826,7 @@
         <v>44209.41666666666</v>
       </c>
       <c r="B300">
-        <v>6841.222000000001</v>
+        <v>3694.682</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2972,7 +2834,7 @@
         <v>44209.45833333334</v>
       </c>
       <c r="B301">
-        <v>6757.292</v>
+        <v>3692.742</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2980,7 +2842,7 @@
         <v>44209.5</v>
       </c>
       <c r="B302">
-        <v>6745.422</v>
+        <v>3685.802000000001</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2988,7 +2850,7 @@
         <v>44209.54166666666</v>
       </c>
       <c r="B303">
-        <v>6744.922</v>
+        <v>3673.842000000001</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2996,7 +2858,7 @@
         <v>44209.58333333334</v>
       </c>
       <c r="B304">
-        <v>6756.692</v>
+        <v>3666.142</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3004,7 +2866,7 @@
         <v>44209.625</v>
       </c>
       <c r="B305">
-        <v>6747.222000000001</v>
+        <v>3668.362</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3012,7 +2874,7 @@
         <v>44209.66666666666</v>
       </c>
       <c r="B306">
-        <v>6750.532</v>
+        <v>3677.772</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -3020,7 +2882,7 @@
         <v>44209.70833333334</v>
       </c>
       <c r="B307">
-        <v>6773.352</v>
+        <v>3713.502</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3028,7 +2890,7 @@
         <v>44209.75</v>
       </c>
       <c r="B308">
-        <v>6824.702</v>
+        <v>3864.042</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -3036,7 +2898,7 @@
         <v>44209.79166666666</v>
       </c>
       <c r="B309">
-        <v>6787.692</v>
+        <v>3830.712</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3044,7 +2906,7 @@
         <v>44209.83333333334</v>
       </c>
       <c r="B310">
-        <v>6771.952</v>
+        <v>3823.982</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -3052,7 +2914,7 @@
         <v>44209.875</v>
       </c>
       <c r="B311">
-        <v>6753.072</v>
+        <v>3816.402</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -3060,7 +2922,7 @@
         <v>44209.91666666666</v>
       </c>
       <c r="B312">
-        <v>6511.692</v>
+        <v>3655.402</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -3068,7 +2930,7 @@
         <v>44209.95833333334</v>
       </c>
       <c r="B313">
-        <v>6239.042</v>
+        <v>3293.412</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -3076,7 +2938,7 @@
         <v>44210</v>
       </c>
       <c r="B314">
-        <v>6090.392000000001</v>
+        <v>3241.992</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -3084,7 +2946,7 @@
         <v>44210.04166666666</v>
       </c>
       <c r="B315">
-        <v>5927.072</v>
+        <v>3084.052000000001</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -3092,7 +2954,7 @@
         <v>44210.08333333334</v>
       </c>
       <c r="B316">
-        <v>5907.792</v>
+        <v>3035.602</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -3100,7 +2962,7 @@
         <v>44210.125</v>
       </c>
       <c r="B317">
-        <v>5932.452</v>
+        <v>3001.622</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -3108,7 +2970,7 @@
         <v>44210.16666666666</v>
       </c>
       <c r="B318">
-        <v>5990.482</v>
+        <v>3015.642</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -3116,7 +2978,7 @@
         <v>44210.20833333334</v>
       </c>
       <c r="B319">
-        <v>6135.992</v>
+        <v>3050.722</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -3124,7 +2986,7 @@
         <v>44210.25</v>
       </c>
       <c r="B320">
-        <v>6492.982</v>
+        <v>3165.722</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -3132,7 +2994,7 @@
         <v>44210.29166666666</v>
       </c>
       <c r="B321">
-        <v>6623.002</v>
+        <v>3234.452</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -3140,7 +3002,7 @@
         <v>44210.33333333334</v>
       </c>
       <c r="B322">
-        <v>6841.162</v>
+        <v>3371.382000000001</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -3148,7 +3010,7 @@
         <v>44210.375</v>
       </c>
       <c r="B323">
-        <v>6868.212</v>
+        <v>3704.732</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -3156,7 +3018,7 @@
         <v>44210.41666666666</v>
       </c>
       <c r="B324">
-        <v>6875.142000000001</v>
+        <v>3767.252</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -3164,7 +3026,7 @@
         <v>44210.45833333334</v>
       </c>
       <c r="B325">
-        <v>6872.112</v>
+        <v>3785.042</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -3172,7 +3034,7 @@
         <v>44210.5</v>
       </c>
       <c r="B326">
-        <v>6867.132000000001</v>
+        <v>3778.372</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -3180,7 +3042,7 @@
         <v>44210.54166666666</v>
       </c>
       <c r="B327">
-        <v>6872.922</v>
+        <v>3772.562</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3188,7 +3050,7 @@
         <v>44210.58333333334</v>
       </c>
       <c r="B328">
-        <v>6872.662</v>
+        <v>3767.182</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3196,7 +3058,7 @@
         <v>44210.625</v>
       </c>
       <c r="B329">
-        <v>6871.022</v>
+        <v>3763.092000000001</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3204,7 +3066,7 @@
         <v>44210.66666666666</v>
       </c>
       <c r="B330">
-        <v>6865.852</v>
+        <v>3767.662</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3212,7 +3074,7 @@
         <v>44210.70833333334</v>
       </c>
       <c r="B331">
-        <v>6879.562</v>
+        <v>3787.922</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3220,7 +3082,7 @@
         <v>44210.75</v>
       </c>
       <c r="B332">
-        <v>6885.272</v>
+        <v>3840.652</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3228,7 +3090,7 @@
         <v>44210.79166666666</v>
       </c>
       <c r="B333">
-        <v>6878.732</v>
+        <v>3839.852</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3236,7 +3098,7 @@
         <v>44210.83333333334</v>
       </c>
       <c r="B334">
-        <v>6869.122</v>
+        <v>3838.282</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3244,7 +3106,7 @@
         <v>44210.875</v>
       </c>
       <c r="B335">
-        <v>6840.502</v>
+        <v>3834.112</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3252,7 +3114,7 @@
         <v>44210.91666666666</v>
       </c>
       <c r="B336">
-        <v>6678.322</v>
+        <v>3738.422</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3260,7 +3122,7 @@
         <v>44210.95833333334</v>
       </c>
       <c r="B337">
-        <v>6321.042</v>
+        <v>3653.462</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3268,7 +3130,7 @@
         <v>44211</v>
       </c>
       <c r="B338">
-        <v>6150.252</v>
+        <v>3202.322</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3276,7 +3138,7 @@
         <v>44211.04166666666</v>
       </c>
       <c r="B339">
-        <v>6048.842</v>
+        <v>3056.292</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3284,7 +3146,7 @@
         <v>44211.08333333334</v>
       </c>
       <c r="B340">
-        <v>5955.602</v>
+        <v>3011.722</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3292,7 +3154,7 @@
         <v>44211.125</v>
       </c>
       <c r="B341">
-        <v>5932.972000000001</v>
+        <v>2993.842000000001</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3300,7 +3162,7 @@
         <v>44211.16666666666</v>
       </c>
       <c r="B342">
-        <v>6017.092</v>
+        <v>3012.462</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3308,7 +3170,7 @@
         <v>44211.20833333334</v>
       </c>
       <c r="B343">
-        <v>6141.232</v>
+        <v>3097.152</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3316,7 +3178,7 @@
         <v>44211.25</v>
       </c>
       <c r="B344">
-        <v>6559.132000000001</v>
+        <v>3271.092000000001</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3324,7 +3186,7 @@
         <v>44211.29166666666</v>
       </c>
       <c r="B345">
-        <v>6733.962</v>
+        <v>3509.212</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3332,7 +3194,7 @@
         <v>44211.33333333334</v>
       </c>
       <c r="B346">
-        <v>6856.242</v>
+        <v>3708.012</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3340,7 +3202,7 @@
         <v>44211.375</v>
       </c>
       <c r="B347">
-        <v>6899.732</v>
+        <v>3810.422</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3348,7 +3210,7 @@
         <v>44211.41666666666</v>
       </c>
       <c r="B348">
-        <v>6924.282</v>
+        <v>3814.872</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3356,7 +3218,7 @@
         <v>44211.45833333334</v>
       </c>
       <c r="B349">
-        <v>6898.032</v>
+        <v>3812.712</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3364,7 +3226,7 @@
         <v>44211.5</v>
       </c>
       <c r="B350">
-        <v>6874.902</v>
+        <v>3809.262</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3372,7 +3234,7 @@
         <v>44211.54166666666</v>
       </c>
       <c r="B351">
-        <v>6874.942</v>
+        <v>3807.792</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3380,7 +3242,7 @@
         <v>44211.58333333334</v>
       </c>
       <c r="B352">
-        <v>6874.642000000001</v>
+        <v>3828.512</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3388,7 +3250,7 @@
         <v>44211.625</v>
       </c>
       <c r="B353">
-        <v>6874.082</v>
+        <v>3829.892</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3396,7 +3258,7 @@
         <v>44211.66666666666</v>
       </c>
       <c r="B354">
-        <v>6875.972000000001</v>
+        <v>3824.982</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3404,7 +3266,7 @@
         <v>44211.70833333334</v>
       </c>
       <c r="B355">
-        <v>6888.702</v>
+        <v>3852.112</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3412,7 +3274,7 @@
         <v>44211.75</v>
       </c>
       <c r="B356">
-        <v>6897.912</v>
+        <v>3856.332</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3420,7 +3282,7 @@
         <v>44211.79166666666</v>
       </c>
       <c r="B357">
-        <v>6903.501999999999</v>
+        <v>3850.382000000001</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3428,7 +3290,7 @@
         <v>44211.83333333334</v>
       </c>
       <c r="B358">
-        <v>6881.272</v>
+        <v>3841.302000000001</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3436,7 +3298,7 @@
         <v>44211.875</v>
       </c>
       <c r="B359">
-        <v>6868.682</v>
+        <v>3801.632000000001</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3444,7 +3306,7 @@
         <v>44211.91666666666</v>
       </c>
       <c r="B360">
-        <v>6735.632000000001</v>
+        <v>3585.202</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3452,7 +3314,7 @@
         <v>44211.95833333334</v>
       </c>
       <c r="B361">
-        <v>6480.982</v>
+        <v>3279.462</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3460,7 +3322,7 @@
         <v>44212</v>
       </c>
       <c r="B362">
-        <v>6324.812</v>
+        <v>3047.662</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3468,7 +3330,7 @@
         <v>44212.04166666666</v>
       </c>
       <c r="B363">
-        <v>6228.982</v>
+        <v>2876.772</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3476,7 +3338,7 @@
         <v>44212.08333333334</v>
       </c>
       <c r="B364">
-        <v>6152.352</v>
+        <v>2873.032</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3484,7 +3346,7 @@
         <v>44212.125</v>
       </c>
       <c r="B365">
-        <v>6119.162</v>
+        <v>2852.292</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3492,7 +3354,7 @@
         <v>44212.16666666666</v>
       </c>
       <c r="B366">
-        <v>6123.592</v>
+        <v>2953.462</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3500,7 +3362,7 @@
         <v>44212.20833333334</v>
       </c>
       <c r="B367">
-        <v>6242.022</v>
+        <v>3080.992</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3508,7 +3370,7 @@
         <v>44212.25</v>
       </c>
       <c r="B368">
-        <v>6503.322</v>
+        <v>3278.302000000001</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3516,7 +3378,7 @@
         <v>44212.29166666666</v>
       </c>
       <c r="B369">
-        <v>6658.772</v>
+        <v>3520.162</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3524,7 +3386,7 @@
         <v>44212.33333333334</v>
       </c>
       <c r="B370">
-        <v>6798.942</v>
+        <v>3657.112</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3532,7 +3394,7 @@
         <v>44212.375</v>
       </c>
       <c r="B371">
-        <v>6868.212</v>
+        <v>3728.232</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3540,7 +3402,7 @@
         <v>44212.41666666666</v>
       </c>
       <c r="B372">
-        <v>6880.642000000001</v>
+        <v>3745.562</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3548,7 +3410,7 @@
         <v>44212.45833333334</v>
       </c>
       <c r="B373">
-        <v>6880.122</v>
+        <v>3734.622</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3556,7 +3418,7 @@
         <v>44212.5</v>
       </c>
       <c r="B374">
-        <v>6877.882000000001</v>
+        <v>3722.842000000001</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3564,7 +3426,7 @@
         <v>44212.54166666666</v>
       </c>
       <c r="B375">
-        <v>6877.462</v>
+        <v>3729.602</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3572,7 +3434,7 @@
         <v>44212.58333333334</v>
       </c>
       <c r="B376">
-        <v>6875.932</v>
+        <v>3720.392</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3580,7 +3442,7 @@
         <v>44212.625</v>
       </c>
       <c r="B377">
-        <v>6878.222000000001</v>
+        <v>3718.042</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3588,7 +3450,7 @@
         <v>44212.66666666666</v>
       </c>
       <c r="B378">
-        <v>6885.392000000001</v>
+        <v>3700.372</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3596,7 +3458,7 @@
         <v>44212.70833333334</v>
       </c>
       <c r="B379">
-        <v>6902.132000000001</v>
+        <v>3711.452</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3604,7 +3466,7 @@
         <v>44212.75</v>
       </c>
       <c r="B380">
-        <v>6887.242</v>
+        <v>3744.782</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3612,7 +3474,7 @@
         <v>44212.79166666666</v>
       </c>
       <c r="B381">
-        <v>6916.342</v>
+        <v>3738.962</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3620,7 +3482,7 @@
         <v>44212.83333333334</v>
       </c>
       <c r="B382">
-        <v>6907.751999999999</v>
+        <v>3727.262</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3628,7 +3490,7 @@
         <v>44212.875</v>
       </c>
       <c r="B383">
-        <v>6887.581999999999</v>
+        <v>3698.232</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3636,7 +3498,7 @@
         <v>44212.91666666666</v>
       </c>
       <c r="B384">
-        <v>6750.732</v>
+        <v>3499.142</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3644,7 +3506,7 @@
         <v>44212.95833333334</v>
       </c>
       <c r="B385">
-        <v>6648.342</v>
+        <v>3222.742</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3652,7 +3514,7 @@
         <v>44213</v>
       </c>
       <c r="B386">
-        <v>6277.842</v>
+        <v>3013.042</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3660,7 +3522,7 @@
         <v>44213.04166666666</v>
       </c>
       <c r="B387">
-        <v>6152.772</v>
+        <v>2866.122</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3668,7 +3530,7 @@
         <v>44213.08333333334</v>
       </c>
       <c r="B388">
-        <v>6102.962</v>
+        <v>2859.552</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3676,7 +3538,7 @@
         <v>44213.125</v>
       </c>
       <c r="B389">
-        <v>6052.202</v>
+        <v>2843.462</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3684,7 +3546,7 @@
         <v>44213.16666666666</v>
       </c>
       <c r="B390">
-        <v>6052.972000000001</v>
+        <v>2892.192</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3692,7 +3554,7 @@
         <v>44213.20833333334</v>
       </c>
       <c r="B391">
-        <v>6104.442</v>
+        <v>3041.562</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3700,7 +3562,7 @@
         <v>44213.25</v>
       </c>
       <c r="B392">
-        <v>6175.142000000001</v>
+        <v>3234.082</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3708,7 +3570,7 @@
         <v>44213.29166666666</v>
       </c>
       <c r="B393">
-        <v>6228.862</v>
+        <v>3505.532</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3716,7 +3578,7 @@
         <v>44213.33333333334</v>
       </c>
       <c r="B394">
-        <v>6447.252</v>
+        <v>3688.492</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3724,7 +3586,7 @@
         <v>44213.375</v>
       </c>
       <c r="B395">
-        <v>6748.402</v>
+        <v>3744.972</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3732,7 +3594,7 @@
         <v>44213.41666666666</v>
       </c>
       <c r="B396">
-        <v>6823.612</v>
+        <v>3804.112</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3740,7 +3602,7 @@
         <v>44213.45833333334</v>
       </c>
       <c r="B397">
-        <v>6864.072</v>
+        <v>3720.182</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3748,7 +3610,7 @@
         <v>44213.5</v>
       </c>
       <c r="B398">
-        <v>6866.232</v>
+        <v>3708.312</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3756,7 +3618,7 @@
         <v>44213.54166666666</v>
       </c>
       <c r="B399">
-        <v>6851.852</v>
+        <v>3707.812</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3764,7 +3626,7 @@
         <v>44213.58333333334</v>
       </c>
       <c r="B400">
-        <v>6852.042</v>
+        <v>3719.582</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3772,7 +3634,7 @@
         <v>44213.625</v>
       </c>
       <c r="B401">
-        <v>6833.482</v>
+        <v>3710.112</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3780,7 +3642,7 @@
         <v>44213.66666666666</v>
       </c>
       <c r="B402">
-        <v>6864.022</v>
+        <v>3713.422</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3788,7 +3650,7 @@
         <v>44213.70833333334</v>
       </c>
       <c r="B403">
-        <v>6895.032</v>
+        <v>3736.242</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3796,7 +3658,7 @@
         <v>44213.75</v>
       </c>
       <c r="B404">
-        <v>6906.692</v>
+        <v>3787.592000000001</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3804,7 +3666,7 @@
         <v>44213.79166666666</v>
       </c>
       <c r="B405">
-        <v>6911.831999999999</v>
+        <v>3750.582</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3812,7 +3674,7 @@
         <v>44213.83333333334</v>
       </c>
       <c r="B406">
-        <v>6896.992</v>
+        <v>3734.842000000001</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3820,7 +3682,7 @@
         <v>44213.875</v>
       </c>
       <c r="B407">
-        <v>6892.302000000001</v>
+        <v>3715.962</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3828,7 +3690,7 @@
         <v>44213.91666666666</v>
       </c>
       <c r="B408">
-        <v>6769.072</v>
+        <v>3474.582</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3836,7 +3698,7 @@
         <v>44213.95833333334</v>
       </c>
       <c r="B409">
-        <v>6347.212</v>
+        <v>3201.932</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3844,7 +3706,7 @@
         <v>44214</v>
       </c>
       <c r="B410">
-        <v>6218.962</v>
+        <v>3053.282</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3852,7 +3714,7 @@
         <v>44214.04166666666</v>
       </c>
       <c r="B411">
-        <v>6097.442</v>
+        <v>2889.962</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3860,7 +3722,7 @@
         <v>44214.08333333334</v>
       </c>
       <c r="B412">
-        <v>5979.792</v>
+        <v>2870.682</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3868,7 +3730,7 @@
         <v>44214.125</v>
       </c>
       <c r="B413">
-        <v>5969.852</v>
+        <v>2895.342000000001</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3876,7 +3738,7 @@
         <v>44214.16666666666</v>
       </c>
       <c r="B414">
-        <v>5990.632000000001</v>
+        <v>2953.372</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3884,7 +3746,7 @@
         <v>44214.20833333334</v>
       </c>
       <c r="B415">
-        <v>6127.912</v>
+        <v>3098.882000000001</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3892,7 +3754,7 @@
         <v>44214.25</v>
       </c>
       <c r="B416">
-        <v>6444.532</v>
+        <v>3455.872</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3900,7 +3762,7 @@
         <v>44214.29166666666</v>
       </c>
       <c r="B417">
-        <v>6685.962</v>
+        <v>3585.892</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3908,7 +3770,7 @@
         <v>44214.33333333334</v>
       </c>
       <c r="B418">
-        <v>6773.992</v>
+        <v>3804.052000000001</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3916,7 +3778,7 @@
         <v>44214.375</v>
       </c>
       <c r="B419">
-        <v>6854.132000000001</v>
+        <v>3831.102</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3924,7 +3786,7 @@
         <v>44214.41666666666</v>
       </c>
       <c r="B420">
-        <v>6854.642000000001</v>
+        <v>3838.032</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3932,7 +3794,7 @@
         <v>44214.45833333334</v>
       </c>
       <c r="B421">
-        <v>6856.292</v>
+        <v>3835.002</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3940,7 +3802,7 @@
         <v>44214.5</v>
       </c>
       <c r="B422">
-        <v>6849.082</v>
+        <v>3830.022</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3948,7 +3810,7 @@
         <v>44214.54166666666</v>
       </c>
       <c r="B423">
-        <v>6844.792</v>
+        <v>3835.812</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3956,7 +3818,7 @@
         <v>44214.58333333334</v>
       </c>
       <c r="B424">
-        <v>6850.252</v>
+        <v>3835.552000000001</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3964,7 +3826,7 @@
         <v>44214.625</v>
       </c>
       <c r="B425">
-        <v>6876.501999999999</v>
+        <v>3833.912</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3972,7 +3834,7 @@
         <v>44214.66666666666</v>
       </c>
       <c r="B426">
-        <v>6873.152</v>
+        <v>3828.742</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3980,7 +3842,7 @@
         <v>44214.70833333334</v>
       </c>
       <c r="B427">
-        <v>6896.482</v>
+        <v>3842.452</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3988,7 +3850,7 @@
         <v>44214.75</v>
       </c>
       <c r="B428">
-        <v>6913.862</v>
+        <v>3848.162</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3996,7 +3858,7 @@
         <v>44214.79166666666</v>
       </c>
       <c r="B429">
-        <v>6864.742</v>
+        <v>3841.622</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -4004,7 +3866,7 @@
         <v>44214.83333333334</v>
       </c>
       <c r="B430">
-        <v>6862.132000000001</v>
+        <v>3832.012</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -4012,7 +3874,7 @@
         <v>44214.875</v>
       </c>
       <c r="B431">
-        <v>6874.642000000001</v>
+        <v>3803.392</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -4020,7 +3882,7 @@
         <v>44214.91666666666</v>
       </c>
       <c r="B432">
-        <v>6760.212</v>
+        <v>3641.212</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -4028,7 +3890,7 @@
         <v>44214.95833333334</v>
       </c>
       <c r="B433">
-        <v>6352.602</v>
+        <v>3283.932</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -4036,7 +3898,7 @@
         <v>44215</v>
       </c>
       <c r="B434">
-        <v>6188.712</v>
+        <v>3113.142</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -4044,7 +3906,7 @@
         <v>44215.04166666666</v>
       </c>
       <c r="B435">
-        <v>6098.912</v>
+        <v>3011.732</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -4052,7 +3914,7 @@
         <v>44215.08333333334</v>
       </c>
       <c r="B436">
-        <v>6037.972000000001</v>
+        <v>2918.492</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -4060,7 +3922,7 @@
         <v>44215.125</v>
       </c>
       <c r="B437">
-        <v>6020.622</v>
+        <v>2895.862</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -4068,7 +3930,7 @@
         <v>44215.16666666666</v>
       </c>
       <c r="B438">
-        <v>6069.702</v>
+        <v>2979.982</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -4076,7 +3938,7 @@
         <v>44215.20833333334</v>
       </c>
       <c r="B439">
-        <v>6200.502</v>
+        <v>3104.122</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -4084,7 +3946,7 @@
         <v>44215.25</v>
       </c>
       <c r="B440">
-        <v>6504.762</v>
+        <v>3522.022</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -4092,7 +3954,7 @@
         <v>44215.29166666666</v>
       </c>
       <c r="B441">
-        <v>6692.962</v>
+        <v>3696.852</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -4100,7 +3962,7 @@
         <v>44215.33333333334</v>
       </c>
       <c r="B442">
-        <v>6788.522</v>
+        <v>3819.132000000001</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -4108,7 +3970,7 @@
         <v>44215.375</v>
       </c>
       <c r="B443">
-        <v>6846.992</v>
+        <v>3862.622</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -4116,7 +3978,7 @@
         <v>44215.41666666666</v>
       </c>
       <c r="B444">
-        <v>6848.172</v>
+        <v>3887.172</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -4124,7 +3986,7 @@
         <v>44215.45833333334</v>
       </c>
       <c r="B445">
-        <v>6851.072</v>
+        <v>3860.922</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -4132,7 +3994,7 @@
         <v>44215.5</v>
       </c>
       <c r="B446">
-        <v>6840.512</v>
+        <v>3837.792</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -4140,7 +4002,7 @@
         <v>44215.54166666666</v>
       </c>
       <c r="B447">
-        <v>6843.912</v>
+        <v>3837.832</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -4148,7 +4010,7 @@
         <v>44215.58333333334</v>
       </c>
       <c r="B448">
-        <v>6844.392000000001</v>
+        <v>3837.532</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -4156,7 +4018,7 @@
         <v>44215.625</v>
       </c>
       <c r="B449">
-        <v>6848.562</v>
+        <v>3836.972</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -4164,7 +4026,7 @@
         <v>44215.66666666666</v>
       </c>
       <c r="B450">
-        <v>6803.542</v>
+        <v>3838.862</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -4172,7 +4034,7 @@
         <v>44215.70833333334</v>
       </c>
       <c r="B451">
-        <v>6874.092</v>
+        <v>3851.592000000001</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -4180,7 +4042,7 @@
         <v>44215.75</v>
       </c>
       <c r="B452">
-        <v>6860.032</v>
+        <v>3860.802000000001</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4188,7 +4050,7 @@
         <v>44215.79166666666</v>
       </c>
       <c r="B453">
-        <v>6857.522</v>
+        <v>3866.392</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4196,7 +4058,7 @@
         <v>44215.83333333334</v>
       </c>
       <c r="B454">
-        <v>6807.632000000001</v>
+        <v>3844.162</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4204,7 +4066,7 @@
         <v>44215.875</v>
       </c>
       <c r="B455">
-        <v>6818.492</v>
+        <v>3831.572</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4212,7 +4074,7 @@
         <v>44215.91666666666</v>
       </c>
       <c r="B456">
-        <v>6739.592</v>
+        <v>3698.522</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4220,7 +4082,7 @@
         <v>44215.95833333334</v>
       </c>
       <c r="B457">
-        <v>6281.942</v>
+        <v>3443.872</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4228,7 +4090,7 @@
         <v>44216</v>
       </c>
       <c r="B458">
-        <v>6247.862</v>
+        <v>3287.702</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4236,7 +4098,7 @@
         <v>44216.04166666666</v>
       </c>
       <c r="B459">
-        <v>6107.862</v>
+        <v>3191.872</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4244,7 +4106,7 @@
         <v>44216.08333333334</v>
       </c>
       <c r="B460">
-        <v>6066.022</v>
+        <v>3115.242</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4252,7 +4114,7 @@
         <v>44216.125</v>
       </c>
       <c r="B461">
-        <v>6057.602</v>
+        <v>3082.052000000001</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4260,7 +4122,7 @@
         <v>44216.16666666666</v>
       </c>
       <c r="B462">
-        <v>6093.902</v>
+        <v>3086.482</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4268,7 +4130,7 @@
         <v>44216.20833333334</v>
       </c>
       <c r="B463">
-        <v>6263.512</v>
+        <v>3204.912</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4276,7 +4138,7 @@
         <v>44216.25</v>
       </c>
       <c r="B464">
-        <v>6526.112</v>
+        <v>3466.212</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4284,7 +4146,7 @@
         <v>44216.29166666666</v>
       </c>
       <c r="B465">
-        <v>6707.482</v>
+        <v>3621.662</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4292,7 +4154,7 @@
         <v>44216.33333333334</v>
       </c>
       <c r="B466">
-        <v>6832.332</v>
+        <v>3761.832</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4300,7 +4162,7 @@
         <v>44216.375</v>
       </c>
       <c r="B467">
-        <v>6849.582</v>
+        <v>3831.102</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4308,7 +4170,7 @@
         <v>44216.41666666666</v>
       </c>
       <c r="B468">
-        <v>6855.082</v>
+        <v>3843.532</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4316,7 +4178,7 @@
         <v>44216.45833333334</v>
       </c>
       <c r="B469">
-        <v>6851.092</v>
+        <v>3843.012</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4324,7 +4186,7 @@
         <v>44216.5</v>
       </c>
       <c r="B470">
-        <v>6844.932</v>
+        <v>3840.772</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4332,7 +4194,7 @@
         <v>44216.54166666666</v>
       </c>
       <c r="B471">
-        <v>6847.922</v>
+        <v>3840.352</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4340,7 +4202,7 @@
         <v>44216.58333333334</v>
       </c>
       <c r="B472">
-        <v>6845.862</v>
+        <v>3838.822</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4348,7 +4210,7 @@
         <v>44216.625</v>
       </c>
       <c r="B473">
-        <v>6846.522</v>
+        <v>3841.112</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4356,7 +4218,7 @@
         <v>44216.66666666666</v>
       </c>
       <c r="B474">
-        <v>6852.202</v>
+        <v>3848.282</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4364,7 +4226,7 @@
         <v>44216.70833333334</v>
       </c>
       <c r="B475">
-        <v>6857.332</v>
+        <v>3865.022</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4372,7 +4234,7 @@
         <v>44216.75</v>
       </c>
       <c r="B476">
-        <v>6866.832</v>
+        <v>3850.132000000001</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4380,7 +4242,7 @@
         <v>44216.79166666666</v>
       </c>
       <c r="B477">
-        <v>6858.672</v>
+        <v>3879.232</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4388,7 +4250,7 @@
         <v>44216.83333333334</v>
       </c>
       <c r="B478">
-        <v>6885.282</v>
+        <v>3870.642</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4396,7 +4258,7 @@
         <v>44216.875</v>
       </c>
       <c r="B479">
-        <v>6831.942</v>
+        <v>3850.472</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4404,7 +4266,7 @@
         <v>44216.91666666666</v>
       </c>
       <c r="B480">
-        <v>6737.132000000001</v>
+        <v>3713.622</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4412,7 +4274,7 @@
         <v>44216.95833333334</v>
       </c>
       <c r="B481">
-        <v>6496.142000000001</v>
+        <v>3611.232</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4420,7 +4282,7 @@
         <v>44217</v>
       </c>
       <c r="B482">
-        <v>6318.402</v>
+        <v>3240.732</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4428,7 +4290,7 @@
         <v>44217.04166666666</v>
       </c>
       <c r="B483">
-        <v>6259.082</v>
+        <v>3115.662</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4436,7 +4298,7 @@
         <v>44217.08333333334</v>
       </c>
       <c r="B484">
-        <v>6220.482</v>
+        <v>3065.852</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4444,7 +4306,7 @@
         <v>44217.125</v>
       </c>
       <c r="B485">
-        <v>6223.602</v>
+        <v>3015.092000000001</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4452,7 +4314,7 @@
         <v>44217.16666666666</v>
       </c>
       <c r="B486">
-        <v>6198.012</v>
+        <v>3015.862</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4460,7 +4322,7 @@
         <v>44217.20833333334</v>
       </c>
       <c r="B487">
-        <v>6285.382000000001</v>
+        <v>3067.332</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4468,7 +4330,7 @@
         <v>44217.25</v>
       </c>
       <c r="B488">
-        <v>6640.982</v>
+        <v>3138.032</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4476,7 +4338,7 @@
         <v>44217.29166666666</v>
       </c>
       <c r="B489">
-        <v>6824.782</v>
+        <v>3191.752</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4484,7 +4346,7 @@
         <v>44217.33333333334</v>
       </c>
       <c r="B490">
-        <v>6885.922</v>
+        <v>3410.142</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4492,7 +4354,7 @@
         <v>44217.375</v>
       </c>
       <c r="B491">
-        <v>6896.112</v>
+        <v>3711.292</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4500,7 +4362,7 @@
         <v>44217.41666666666</v>
       </c>
       <c r="B492">
-        <v>6890.642000000001</v>
+        <v>3786.502</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4508,7 +4370,7 @@
         <v>44217.45833333334</v>
       </c>
       <c r="B493">
-        <v>6884.751999999999</v>
+        <v>3826.962</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4516,7 +4378,7 @@
         <v>44217.5</v>
       </c>
       <c r="B494">
-        <v>6874.932</v>
+        <v>3829.122</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4524,7 +4386,7 @@
         <v>44217.54166666666</v>
       </c>
       <c r="B495">
-        <v>6874.732</v>
+        <v>3814.742</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4532,7 +4394,7 @@
         <v>44217.58333333334</v>
       </c>
       <c r="B496">
-        <v>6873.042</v>
+        <v>3814.932</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4540,7 +4402,7 @@
         <v>44217.625</v>
       </c>
       <c r="B497">
-        <v>6873.802000000001</v>
+        <v>3796.372</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4548,7 +4410,7 @@
         <v>44217.66666666666</v>
       </c>
       <c r="B498">
-        <v>6873.332</v>
+        <v>3826.912</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4556,7 +4418,7 @@
         <v>44217.70833333334</v>
       </c>
       <c r="B499">
-        <v>6881.652</v>
+        <v>3857.922</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4564,7 +4426,7 @@
         <v>44217.75</v>
       </c>
       <c r="B500">
-        <v>6946.922</v>
+        <v>3869.582</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4572,7 +4434,7 @@
         <v>44217.79166666666</v>
       </c>
       <c r="B501">
-        <v>6900.732</v>
+        <v>3874.722</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4580,7 +4442,7 @@
         <v>44217.83333333334</v>
       </c>
       <c r="B502">
-        <v>6892.892000000001</v>
+        <v>3859.882000000001</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4588,7 +4450,7 @@
         <v>44217.875</v>
       </c>
       <c r="B503">
-        <v>6893.032</v>
+        <v>3855.192</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4596,7 +4458,7 @@
         <v>44217.91666666666</v>
       </c>
       <c r="B504">
-        <v>6829.992</v>
+        <v>3731.962</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4604,7 +4466,7 @@
         <v>44217.95833333334</v>
       </c>
       <c r="B505">
-        <v>6757.802000000001</v>
+        <v>3310.102</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4612,7 +4474,7 @@
         <v>44218</v>
       </c>
       <c r="B506">
-        <v>6302.152</v>
+        <v>3181.852</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4620,7 +4482,7 @@
         <v>44218.04166666666</v>
       </c>
       <c r="B507">
-        <v>6225.352</v>
+        <v>3060.332</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4628,7 +4490,7 @@
         <v>44218.08333333334</v>
       </c>
       <c r="B508">
-        <v>6127.522</v>
+        <v>2942.682</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4636,7 +4498,7 @@
         <v>44218.125</v>
       </c>
       <c r="B509">
-        <v>6126.002</v>
+        <v>2932.742</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4644,7 +4506,7 @@
         <v>44218.16666666666</v>
       </c>
       <c r="B510">
-        <v>6139.972000000001</v>
+        <v>2953.522</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4652,7 +4514,7 @@
         <v>44218.20833333334</v>
       </c>
       <c r="B511">
-        <v>6270.142000000001</v>
+        <v>3090.802000000001</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4660,7 +4522,7 @@
         <v>44218.25</v>
       </c>
       <c r="B512">
-        <v>6618.332</v>
+        <v>3407.422</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4668,7 +4530,7 @@
         <v>44218.29166666666</v>
       </c>
       <c r="B513">
-        <v>6812.742</v>
+        <v>3648.852</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4676,7 +4538,7 @@
         <v>44218.33333333334</v>
       </c>
       <c r="B514">
-        <v>6855.532</v>
+        <v>3736.882000000001</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4684,7 +4546,7 @@
         <v>44218.375</v>
       </c>
       <c r="B515">
-        <v>6916.222000000001</v>
+        <v>3817.022</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4692,7 +4554,7 @@
         <v>44218.41666666666</v>
       </c>
       <c r="B516">
-        <v>6918.892000000001</v>
+        <v>3817.532</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4700,7 +4562,7 @@
         <v>44218.45833333334</v>
       </c>
       <c r="B517">
-        <v>6853.392000000001</v>
+        <v>3819.182</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4708,7 +4570,7 @@
         <v>44218.5</v>
       </c>
       <c r="B518">
-        <v>6849.152</v>
+        <v>3811.972</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4716,7 +4578,7 @@
         <v>44218.54166666666</v>
       </c>
       <c r="B519">
-        <v>6846.102</v>
+        <v>3807.682</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4724,7 +4586,7 @@
         <v>44218.58333333334</v>
       </c>
       <c r="B520">
-        <v>6844.482</v>
+        <v>3813.142</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4732,7 +4594,7 @@
         <v>44218.625</v>
       </c>
       <c r="B521">
-        <v>6845.572</v>
+        <v>3839.392</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4740,7 +4602,7 @@
         <v>44218.66666666666</v>
       </c>
       <c r="B522">
-        <v>6878.852</v>
+        <v>3836.042</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4748,7 +4610,7 @@
         <v>44218.70833333334</v>
       </c>
       <c r="B523">
-        <v>6896.762</v>
+        <v>3859.372</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4756,7 +4618,7 @@
         <v>44218.75</v>
       </c>
       <c r="B524">
-        <v>6916.622</v>
+        <v>3876.752</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4764,7 +4626,7 @@
         <v>44218.79166666666</v>
       </c>
       <c r="B525">
-        <v>6860.402</v>
+        <v>3827.632000000001</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4772,7 +4634,7 @@
         <v>44218.83333333334</v>
       </c>
       <c r="B526">
-        <v>6858.372</v>
+        <v>3825.022</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4780,7 +4642,7 @@
         <v>44218.875</v>
       </c>
       <c r="B527">
-        <v>6895.802000000001</v>
+        <v>3837.532</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4788,7 +4650,7 @@
         <v>44218.91666666666</v>
       </c>
       <c r="B528">
-        <v>6858.972000000001</v>
+        <v>3723.102</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4796,7 +4658,7 @@
         <v>44218.95833333334</v>
       </c>
       <c r="B529">
-        <v>6761.422</v>
+        <v>3315.492</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4804,7 +4666,7 @@
         <v>44219</v>
       </c>
       <c r="B530">
-        <v>6357.442</v>
+        <v>3151.602</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4812,7 +4674,7 @@
         <v>44219.04166666666</v>
       </c>
       <c r="B531">
-        <v>6238.162</v>
+        <v>3061.802000000001</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4820,7 +4682,7 @@
         <v>44219.08333333334</v>
       </c>
       <c r="B532">
-        <v>6214.642000000001</v>
+        <v>3000.862</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4828,7 +4690,7 @@
         <v>44219.125</v>
       </c>
       <c r="B533">
-        <v>6216.572</v>
+        <v>2983.512</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4836,7 +4698,7 @@
         <v>44219.16666666666</v>
       </c>
       <c r="B534">
-        <v>6218.612</v>
+        <v>3032.592000000001</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4844,7 +4706,7 @@
         <v>44219.20833333334</v>
       </c>
       <c r="B535">
-        <v>6260.662</v>
+        <v>3163.392</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4852,7 +4714,7 @@
         <v>44219.25</v>
       </c>
       <c r="B536">
-        <v>6408.112</v>
+        <v>3467.652</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4860,7 +4722,7 @@
         <v>44219.29166666666</v>
       </c>
       <c r="B537">
-        <v>6710.932</v>
+        <v>3655.852</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4868,7 +4730,7 @@
         <v>44219.33333333334</v>
       </c>
       <c r="B538">
-        <v>6816.052000000001</v>
+        <v>3751.412</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4876,7 +4738,7 @@
         <v>44219.375</v>
       </c>
       <c r="B539">
-        <v>6894.992</v>
+        <v>3809.882000000001</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4884,7 +4746,7 @@
         <v>44219.41666666666</v>
       </c>
       <c r="B540">
-        <v>6906.302000000001</v>
+        <v>3811.062</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4892,7 +4754,7 @@
         <v>44219.45833333334</v>
       </c>
       <c r="B541">
-        <v>6902.102</v>
+        <v>3813.962</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4900,7 +4762,7 @@
         <v>44219.5</v>
       </c>
       <c r="B542">
-        <v>6891.402</v>
+        <v>3803.402</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4908,7 +4770,7 @@
         <v>44219.54166666666</v>
       </c>
       <c r="B543">
-        <v>6884.402</v>
+        <v>3806.802000000001</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4916,7 +4778,7 @@
         <v>44219.58333333334</v>
       </c>
       <c r="B544">
-        <v>6884.272</v>
+        <v>3807.282</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4924,7 +4786,7 @@
         <v>44219.625</v>
       </c>
       <c r="B545">
-        <v>6884.932</v>
+        <v>3811.452</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4932,7 +4794,7 @@
         <v>44219.66666666666</v>
       </c>
       <c r="B546">
-        <v>6882.442</v>
+        <v>3766.432</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4940,7 +4802,7 @@
         <v>44219.70833333334</v>
       </c>
       <c r="B547">
-        <v>6898.462</v>
+        <v>3836.982</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4948,7 +4810,7 @@
         <v>44219.75</v>
       </c>
       <c r="B548">
-        <v>6921.052000000001</v>
+        <v>3822.922</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4956,7 +4818,7 @@
         <v>44219.79166666666</v>
       </c>
       <c r="B549">
-        <v>6915.182</v>
+        <v>3820.412</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4964,7 +4826,7 @@
         <v>44219.83333333334</v>
       </c>
       <c r="B550">
-        <v>6903.712</v>
+        <v>3770.522</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4972,7 +4834,7 @@
         <v>44219.875</v>
       </c>
       <c r="B551">
-        <v>6887.422</v>
+        <v>3781.382000000001</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4980,7 +4842,7 @@
         <v>44219.91666666666</v>
       </c>
       <c r="B552">
-        <v>6821.222000000001</v>
+        <v>3702.482</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4988,7 +4850,7 @@
         <v>44219.95833333334</v>
       </c>
       <c r="B553">
-        <v>6798.002</v>
+        <v>3244.832</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4996,7 +4858,7 @@
         <v>44220</v>
       </c>
       <c r="B554">
-        <v>6541.352</v>
+        <v>3210.752</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -5004,7 +4866,7 @@
         <v>44220.04166666666</v>
       </c>
       <c r="B555">
-        <v>6218.262</v>
+        <v>3070.752</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -5012,7 +4874,7 @@
         <v>44220.08333333334</v>
       </c>
       <c r="B556">
-        <v>6149.802000000001</v>
+        <v>3028.912</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -5020,7 +4882,7 @@
         <v>44220.125</v>
       </c>
       <c r="B557">
-        <v>6170.372</v>
+        <v>3020.492</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -5028,7 +4890,7 @@
         <v>44220.16666666666</v>
       </c>
       <c r="B558">
-        <v>6211.482</v>
+        <v>3056.792</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -5036,7 +4898,7 @@
         <v>44220.20833333334</v>
       </c>
       <c r="B559">
-        <v>6243.952</v>
+        <v>3226.402</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -5044,7 +4906,7 @@
         <v>44220.25</v>
       </c>
       <c r="B560">
-        <v>6289.632000000001</v>
+        <v>3489.002</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -5052,7 +4914,7 @@
         <v>44220.29166666666</v>
       </c>
       <c r="B561">
-        <v>6536.882000000001</v>
+        <v>3670.372</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -5060,7 +4922,7 @@
         <v>44220.33333333334</v>
       </c>
       <c r="B562">
-        <v>6764.882000000001</v>
+        <v>3795.222</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -5068,7 +4930,7 @@
         <v>44220.375</v>
       </c>
       <c r="B563">
-        <v>6846.542</v>
+        <v>3812.472</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -5076,7 +4938,7 @@
         <v>44220.41666666666</v>
       </c>
       <c r="B564">
-        <v>6894.522</v>
+        <v>3817.972</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -5084,7 +4946,7 @@
         <v>44220.45833333334</v>
       </c>
       <c r="B565">
-        <v>6894.842</v>
+        <v>3813.982</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -5092,7 +4954,7 @@
         <v>44220.5</v>
       </c>
       <c r="B566">
-        <v>6895.912</v>
+        <v>3807.822</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -5100,7 +4962,7 @@
         <v>44220.54166666666</v>
       </c>
       <c r="B567">
-        <v>6893.682</v>
+        <v>3810.812</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -5108,7 +4970,7 @@
         <v>44220.58333333334</v>
       </c>
       <c r="B568">
-        <v>6894.912</v>
+        <v>3808.752</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -5116,7 +4978,7 @@
         <v>44220.625</v>
       </c>
       <c r="B569">
-        <v>6889.751999999999</v>
+        <v>3809.412</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -5124,7 +4986,7 @@
         <v>44220.66666666666</v>
       </c>
       <c r="B570">
-        <v>6901.652</v>
+        <v>3815.092000000001</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -5132,7 +4994,7 @@
         <v>44220.70833333334</v>
       </c>
       <c r="B571">
-        <v>6924.702</v>
+        <v>3820.222</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -5140,7 +5002,7 @@
         <v>44220.75</v>
       </c>
       <c r="B572">
-        <v>6993.742</v>
+        <v>3829.722</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -5148,7 +5010,7 @@
         <v>44220.79166666666</v>
       </c>
       <c r="B573">
-        <v>6980.452</v>
+        <v>3821.562</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -5156,7 +5018,7 @@
         <v>44220.83333333334</v>
       </c>
       <c r="B574">
-        <v>6949.312</v>
+        <v>3848.172</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -5164,7 +5026,7 @@
         <v>44220.875</v>
       </c>
       <c r="B575">
-        <v>6922.162</v>
+        <v>3794.832</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -5172,7 +5034,7 @@
         <v>44220.91666666666</v>
       </c>
       <c r="B576">
-        <v>6825.462</v>
+        <v>3700.022</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -5180,7 +5042,7 @@
         <v>44220.95833333334</v>
       </c>
       <c r="B577">
-        <v>6624.472000000001</v>
+        <v>3459.032</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -5188,7 +5050,7 @@
         <v>44221</v>
       </c>
       <c r="B578">
-        <v>6299.552000000001</v>
+        <v>3281.292</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5196,7 +5058,7 @@
         <v>44221.04166666666</v>
       </c>
       <c r="B579">
-        <v>6175.262</v>
+        <v>3221.972</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5204,7 +5066,7 @@
         <v>44221.08333333334</v>
       </c>
       <c r="B580">
-        <v>6123.932</v>
+        <v>3183.372</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5212,7 +5074,7 @@
         <v>44221.125</v>
       </c>
       <c r="B581">
-        <v>6167.792</v>
+        <v>3186.492</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5220,7 +5082,7 @@
         <v>44221.16666666666</v>
       </c>
       <c r="B582">
-        <v>6188.332</v>
+        <v>3160.902</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5228,7 +5090,7 @@
         <v>44221.20833333334</v>
       </c>
       <c r="B583">
-        <v>6408.512</v>
+        <v>3248.272</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5236,7 +5098,7 @@
         <v>44221.25</v>
       </c>
       <c r="B584">
-        <v>6635.852</v>
+        <v>3603.872</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5244,7 +5106,7 @@
         <v>44221.29166666666</v>
       </c>
       <c r="B585">
-        <v>6794.322</v>
+        <v>3787.672</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5252,7 +5114,7 @@
         <v>44221.33333333334</v>
       </c>
       <c r="B586">
-        <v>6880.132000000001</v>
+        <v>3848.812</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5260,7 +5122,7 @@
         <v>44221.375</v>
       </c>
       <c r="B587">
-        <v>6892.952</v>
+        <v>3859.002</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5268,7 +5130,7 @@
         <v>44221.41666666666</v>
       </c>
       <c r="B588">
-        <v>6896.542</v>
+        <v>3853.532</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5276,7 +5138,7 @@
         <v>44221.45833333334</v>
       </c>
       <c r="B589">
-        <v>6887.172</v>
+        <v>3847.642</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5284,7 +5146,7 @@
         <v>44221.5</v>
       </c>
       <c r="B590">
-        <v>6879.642000000001</v>
+        <v>3837.822</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5292,7 +5154,7 @@
         <v>44221.54166666666</v>
       </c>
       <c r="B591">
-        <v>6878.232</v>
+        <v>3837.622</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5300,7 +5162,7 @@
         <v>44221.58333333334</v>
       </c>
       <c r="B592">
-        <v>6879.642000000001</v>
+        <v>3835.932</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5308,7 +5170,7 @@
         <v>44221.625</v>
       </c>
       <c r="B593">
-        <v>6885.392000000001</v>
+        <v>3836.692</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5316,7 +5178,7 @@
         <v>44221.66666666666</v>
       </c>
       <c r="B594">
-        <v>6878.122</v>
+        <v>3836.222</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5324,7 +5186,7 @@
         <v>44221.70833333334</v>
       </c>
       <c r="B595">
-        <v>6896.302000000001</v>
+        <v>3844.542</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5332,7 +5194,7 @@
         <v>44221.75</v>
       </c>
       <c r="B596">
-        <v>6913.172</v>
+        <v>3909.812</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5340,7 +5202,7 @@
         <v>44221.79166666666</v>
       </c>
       <c r="B597">
-        <v>6905.062</v>
+        <v>3863.622</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5348,7 +5210,7 @@
         <v>44221.83333333334</v>
       </c>
       <c r="B598">
-        <v>6847.522</v>
+        <v>3855.782</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5356,7 +5218,7 @@
         <v>44221.875</v>
       </c>
       <c r="B599">
-        <v>6868.012</v>
+        <v>3855.922</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5364,7 +5226,7 @@
         <v>44221.91666666666</v>
       </c>
       <c r="B600">
-        <v>6844.762</v>
+        <v>3792.882000000001</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5372,7 +5234,7 @@
         <v>44221.95833333334</v>
       </c>
       <c r="B601">
-        <v>6480.402</v>
+        <v>3720.692</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5380,7 +5242,7 @@
         <v>44222</v>
       </c>
       <c r="B602">
-        <v>6243.032</v>
+        <v>3265.042</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5388,7 +5250,7 @@
         <v>44222.04166666666</v>
       </c>
       <c r="B603">
-        <v>6152.582</v>
+        <v>3188.242</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5396,7 +5258,7 @@
         <v>44222.08333333334</v>
       </c>
       <c r="B604">
-        <v>6111.562</v>
+        <v>3090.412</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5404,7 +5266,7 @@
         <v>44222.125</v>
       </c>
       <c r="B605">
-        <v>6096.222000000001</v>
+        <v>3088.892</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5412,7 +5274,7 @@
         <v>44222.16666666666</v>
       </c>
       <c r="B606">
-        <v>6114.232</v>
+        <v>3102.862</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5420,7 +5282,7 @@
         <v>44222.20833333334</v>
       </c>
       <c r="B607">
-        <v>6288.322</v>
+        <v>3233.032</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5428,7 +5290,7 @@
         <v>44222.25</v>
       </c>
       <c r="B608">
-        <v>6566.432</v>
+        <v>3581.222</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5436,7 +5298,7 @@
         <v>44222.29166666666</v>
       </c>
       <c r="B609">
-        <v>6745.082</v>
+        <v>3775.632000000001</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5444,7 +5306,7 @@
         <v>44222.33333333334</v>
       </c>
       <c r="B610">
-        <v>6843.312</v>
+        <v>3818.422</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5452,7 +5314,7 @@
         <v>44222.375</v>
       </c>
       <c r="B611">
-        <v>6964.442</v>
+        <v>3879.112</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5460,7 +5322,7 @@
         <v>44222.41666666666</v>
       </c>
       <c r="B612">
-        <v>7080.082</v>
+        <v>3881.782</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5468,7 +5330,7 @@
         <v>44222.45833333334</v>
       </c>
       <c r="B613">
-        <v>6926.042</v>
+        <v>3816.282</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5476,7 +5338,7 @@
         <v>44222.5</v>
       </c>
       <c r="B614">
-        <v>6885.202</v>
+        <v>3812.042</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5484,7 +5346,7 @@
         <v>44222.54166666666</v>
       </c>
       <c r="B615">
-        <v>6884.982</v>
+        <v>3808.992</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5492,7 +5354,7 @@
         <v>44222.58333333334</v>
       </c>
       <c r="B616">
-        <v>6884.152</v>
+        <v>3807.372</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5500,7 +5362,7 @@
         <v>44222.625</v>
       </c>
       <c r="B617">
-        <v>6880.562</v>
+        <v>3808.462</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5508,7 +5370,7 @@
         <v>44222.66666666666</v>
       </c>
       <c r="B618">
-        <v>6770.342</v>
+        <v>3841.742</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5516,7 +5378,7 @@
         <v>44222.70833333334</v>
       </c>
       <c r="B619">
-        <v>6847.612</v>
+        <v>3859.652</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5524,7 +5386,7 @@
         <v>44222.75</v>
       </c>
       <c r="B620">
-        <v>7048.602</v>
+        <v>3879.512</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5532,7 +5394,7 @@
         <v>44222.79166666666</v>
       </c>
       <c r="B621">
-        <v>6865.622</v>
+        <v>3823.292</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5540,7 +5402,7 @@
         <v>44222.83333333334</v>
       </c>
       <c r="B622">
-        <v>6839.472000000001</v>
+        <v>3821.262</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5548,7 +5410,7 @@
         <v>44222.875</v>
       </c>
       <c r="B623">
-        <v>6931.852</v>
+        <v>3858.692</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5556,7 +5418,7 @@
         <v>44222.91666666666</v>
       </c>
       <c r="B624">
-        <v>6807.822</v>
+        <v>3821.862</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5564,7 +5426,7 @@
         <v>44222.95833333334</v>
       </c>
       <c r="B625">
-        <v>6527.822</v>
+        <v>3724.312</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5572,7 +5434,7 @@
         <v>44223</v>
       </c>
       <c r="B626">
-        <v>6240.152</v>
+        <v>3320.332</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5580,7 +5442,7 @@
         <v>44223.04166666666</v>
       </c>
       <c r="B627">
-        <v>6120.572</v>
+        <v>3201.052000000001</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5588,7 +5450,7 @@
         <v>44223.08333333334</v>
       </c>
       <c r="B628">
-        <v>6087.262</v>
+        <v>3177.532</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5596,7 +5458,7 @@
         <v>44223.125</v>
       </c>
       <c r="B629">
-        <v>6100.822</v>
+        <v>3179.462</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5604,7 +5466,7 @@
         <v>44223.16666666666</v>
       </c>
       <c r="B630">
-        <v>6130.372</v>
+        <v>3181.502</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5612,7 +5474,7 @@
         <v>44223.20833333334</v>
       </c>
       <c r="B631">
-        <v>6280.372</v>
+        <v>3223.552000000001</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5620,7 +5482,7 @@
         <v>44223.25</v>
       </c>
       <c r="B632">
-        <v>6616.132000000001</v>
+        <v>3371.002</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5628,7 +5490,7 @@
         <v>44223.29166666666</v>
       </c>
       <c r="B633">
-        <v>6737.772</v>
+        <v>3673.822</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5636,7 +5498,7 @@
         <v>44223.33333333334</v>
       </c>
       <c r="B634">
-        <v>6826.272</v>
+        <v>3778.942</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5644,7 +5506,7 @@
         <v>44223.375</v>
       </c>
       <c r="B635">
-        <v>6874.262</v>
+        <v>3857.882000000001</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5652,7 +5514,7 @@
         <v>44223.41666666666</v>
       </c>
       <c r="B636">
-        <v>6863.992</v>
+        <v>3869.192</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5660,7 +5522,7 @@
         <v>44223.45833333334</v>
       </c>
       <c r="B637">
-        <v>6820.422</v>
+        <v>3864.992</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5668,7 +5530,7 @@
         <v>44223.5</v>
       </c>
       <c r="B638">
-        <v>6826.442</v>
+        <v>3854.292</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5676,7 +5538,7 @@
         <v>44223.54166666666</v>
       </c>
       <c r="B639">
-        <v>6808.992</v>
+        <v>3847.292</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5684,7 +5546,7 @@
         <v>44223.58333333334</v>
       </c>
       <c r="B640">
-        <v>6808.822</v>
+        <v>3847.162</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5692,7 +5554,7 @@
         <v>44223.625</v>
       </c>
       <c r="B641">
-        <v>6802.762</v>
+        <v>3847.822</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5700,7 +5562,7 @@
         <v>44223.66666666666</v>
       </c>
       <c r="B642">
-        <v>6790.362</v>
+        <v>3845.332</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5708,7 +5570,7 @@
         <v>44223.70833333334</v>
       </c>
       <c r="B643">
-        <v>6809.052000000001</v>
+        <v>3861.352</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5716,7 +5578,7 @@
         <v>44223.75</v>
       </c>
       <c r="B644">
-        <v>6864.872</v>
+        <v>3883.942</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5724,7 +5586,7 @@
         <v>44223.79166666666</v>
       </c>
       <c r="B645">
-        <v>6852.752</v>
+        <v>3878.072</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5732,7 +5594,7 @@
         <v>44223.83333333334</v>
       </c>
       <c r="B646">
-        <v>6832.632000000001</v>
+        <v>3866.602</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5740,7 +5602,7 @@
         <v>44223.875</v>
       </c>
       <c r="B647">
-        <v>6789.932</v>
+        <v>3850.312</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5748,7 +5610,7 @@
         <v>44223.91666666666</v>
       </c>
       <c r="B648">
-        <v>6642.242</v>
+        <v>3784.112</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5756,7 +5618,7 @@
         <v>44223.95833333334</v>
       </c>
       <c r="B649">
-        <v>6346.252</v>
+        <v>3760.892</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5764,7 +5626,7 @@
         <v>44224</v>
       </c>
       <c r="B650">
-        <v>6222.642000000001</v>
+        <v>3504.242</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5772,7 +5634,7 @@
         <v>44224.04166666666</v>
       </c>
       <c r="B651">
-        <v>6128.882000000001</v>
+        <v>3181.152</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5780,7 +5642,7 @@
         <v>44224.08333333334</v>
       </c>
       <c r="B652">
-        <v>6092.582</v>
+        <v>3112.692</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5788,7 +5650,7 @@
         <v>44224.125</v>
       </c>
       <c r="B653">
-        <v>6089.922</v>
+        <v>3133.262</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5796,7 +5658,7 @@
         <v>44224.16666666666</v>
       </c>
       <c r="B654">
-        <v>6108.482</v>
+        <v>3174.372</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5804,7 +5666,7 @@
         <v>44224.20833333334</v>
       </c>
       <c r="B655">
-        <v>6274.052000000001</v>
+        <v>3206.842000000001</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5812,7 +5674,7 @@
         <v>44224.25</v>
       </c>
       <c r="B656">
-        <v>6598.162</v>
+        <v>3252.522</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5820,7 +5682,7 @@
         <v>44224.29166666666</v>
       </c>
       <c r="B657">
-        <v>6742.402</v>
+        <v>3499.772</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5828,7 +5690,7 @@
         <v>44224.33333333334</v>
       </c>
       <c r="B658">
-        <v>6838.592</v>
+        <v>3727.772</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5836,7 +5698,7 @@
         <v>44224.375</v>
       </c>
       <c r="B659">
-        <v>6864.942</v>
+        <v>3809.432</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5844,7 +5706,7 @@
         <v>44224.41666666666</v>
       </c>
       <c r="B660">
-        <v>6865.632000000001</v>
+        <v>3857.412</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5852,7 +5714,7 @@
         <v>44224.45833333334</v>
       </c>
       <c r="B661">
-        <v>6841.592</v>
+        <v>3857.732</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5860,7 +5722,7 @@
         <v>44224.5</v>
       </c>
       <c r="B662">
-        <v>6856.062</v>
+        <v>3858.802000000001</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5868,7 +5730,7 @@
         <v>44224.54166666666</v>
       </c>
       <c r="B663">
-        <v>6855.352</v>
+        <v>3856.572</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5876,7 +5738,7 @@
         <v>44224.58333333334</v>
       </c>
       <c r="B664">
-        <v>6856.472000000001</v>
+        <v>3857.802000000001</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5884,7 +5746,7 @@
         <v>44224.625</v>
       </c>
       <c r="B665">
-        <v>6858.492</v>
+        <v>3852.642</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5892,7 +5754,7 @@
         <v>44224.66666666666</v>
       </c>
       <c r="B666">
-        <v>6859.072</v>
+        <v>3864.542</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5900,7 +5762,7 @@
         <v>44224.70833333334</v>
       </c>
       <c r="B667">
-        <v>6864.522</v>
+        <v>3887.592000000001</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5908,7 +5770,7 @@
         <v>44224.75</v>
       </c>
       <c r="B668">
-        <v>6878.302000000001</v>
+        <v>3956.632000000001</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5916,7 +5778,7 @@
         <v>44224.79166666666</v>
       </c>
       <c r="B669">
-        <v>6876.792</v>
+        <v>3943.342000000001</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5924,7 +5786,7 @@
         <v>44224.83333333334</v>
       </c>
       <c r="B670">
-        <v>6868.292</v>
+        <v>3912.202</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5932,7 +5794,7 @@
         <v>44224.875</v>
       </c>
       <c r="B671">
-        <v>6853.772</v>
+        <v>3885.052000000001</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5940,7 +5802,7 @@
         <v>44224.91666666666</v>
       </c>
       <c r="B672">
-        <v>6704.612</v>
+        <v>3788.352</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5948,7 +5810,7 @@
         <v>44224.95833333334</v>
       </c>
       <c r="B673">
-        <v>6290.732</v>
+        <v>3587.362</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5956,7 +5818,7 @@
         <v>44225</v>
       </c>
       <c r="B674">
-        <v>6224.542</v>
+        <v>3262.442</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5964,7 +5826,7 @@
         <v>44225.04166666666</v>
       </c>
       <c r="B675">
-        <v>6122.782</v>
+        <v>3138.152</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5972,7 +5834,7 @@
         <v>44225.08333333334</v>
       </c>
       <c r="B676">
-        <v>6087.622</v>
+        <v>3086.822</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5980,7 +5842,7 @@
         <v>44225.125</v>
       </c>
       <c r="B677">
-        <v>6087.752</v>
+        <v>3130.682</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5988,7 +5850,7 @@
         <v>44225.16666666666</v>
       </c>
       <c r="B678">
-        <v>6124.682</v>
+        <v>3151.222</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5996,7 +5858,7 @@
         <v>44225.20833333334</v>
       </c>
       <c r="B679">
-        <v>6229.612</v>
+        <v>3371.402</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -6004,7 +5866,7 @@
         <v>44225.25</v>
       </c>
       <c r="B680">
-        <v>6494.422</v>
+        <v>3598.742</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -6012,7 +5874,7 @@
         <v>44225.29166666666</v>
       </c>
       <c r="B681">
-        <v>6706.272</v>
+        <v>3757.212</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -6020,7 +5882,7 @@
         <v>44225.33333333334</v>
       </c>
       <c r="B682">
-        <v>6775.272</v>
+        <v>3843.022</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -6028,7 +5890,7 @@
         <v>44225.375</v>
       </c>
       <c r="B683">
-        <v>6832.312</v>
+        <v>3855.842000000001</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -6036,7 +5898,7 @@
         <v>44225.41666666666</v>
       </c>
       <c r="B684">
-        <v>6832.452</v>
+        <v>3859.432</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -6044,7 +5906,7 @@
         <v>44225.45833333334</v>
       </c>
       <c r="B685">
-        <v>6826.872</v>
+        <v>3850.062</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -6052,7 +5914,7 @@
         <v>44225.5</v>
       </c>
       <c r="B686">
-        <v>6790.012</v>
+        <v>3842.532</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -6060,7 +5922,7 @@
         <v>44225.54166666666</v>
       </c>
       <c r="B687">
-        <v>6831.252</v>
+        <v>3841.122</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -6068,7 +5930,7 @@
         <v>44225.58333333334</v>
       </c>
       <c r="B688">
-        <v>6830.652</v>
+        <v>3842.532</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -6076,7 +5938,7 @@
         <v>44225.625</v>
       </c>
       <c r="B689">
-        <v>6830.342</v>
+        <v>3848.282</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -6084,7 +5946,7 @@
         <v>44225.66666666666</v>
       </c>
       <c r="B690">
-        <v>6782.982</v>
+        <v>3841.012</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -6092,7 +5954,7 @@
         <v>44225.70833333334</v>
       </c>
       <c r="B691">
-        <v>6785.772</v>
+        <v>3859.192</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -6100,7 +5962,7 @@
         <v>44225.75</v>
       </c>
       <c r="B692">
-        <v>6843.512</v>
+        <v>3876.062</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -6108,7 +5970,7 @@
         <v>44225.79166666666</v>
       </c>
       <c r="B693">
-        <v>6840.812</v>
+        <v>3867.952</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -6116,7 +5978,7 @@
         <v>44225.83333333334</v>
       </c>
       <c r="B694">
-        <v>6839.442</v>
+        <v>3810.412</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -6124,7 +5986,7 @@
         <v>44225.875</v>
       </c>
       <c r="B695">
-        <v>6865.932</v>
+        <v>3830.902</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -6132,7 +5994,7 @@
         <v>44225.91666666666</v>
       </c>
       <c r="B696">
-        <v>6714.732</v>
+        <v>3807.652</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -6140,7 +6002,7 @@
         <v>44225.95833333334</v>
       </c>
       <c r="B697">
-        <v>6341.882000000001</v>
+        <v>3443.292</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -6148,7 +6010,7 @@
         <v>44226</v>
       </c>
       <c r="B698">
-        <v>6518.452</v>
+        <v>3205.922</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -6156,7 +6018,7 @@
         <v>44226.04166666666</v>
       </c>
       <c r="B699">
-        <v>6290.032</v>
+        <v>3115.472</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -6164,7 +6026,7 @@
         <v>44226.08333333334</v>
       </c>
       <c r="B700">
-        <v>6235.672</v>
+        <v>3074.452</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -6172,7 +6034,7 @@
         <v>44226.125</v>
       </c>
       <c r="B701">
-        <v>6219.052000000001</v>
+        <v>3059.112</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -6180,7 +6042,7 @@
         <v>44226.16666666666</v>
       </c>
       <c r="B702">
-        <v>6223.222000000001</v>
+        <v>3077.122</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -6188,7 +6050,7 @@
         <v>44226.20833333334</v>
       </c>
       <c r="B703">
-        <v>6243.262</v>
+        <v>3251.212</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6196,7 +6058,7 @@
         <v>44226.25</v>
       </c>
       <c r="B704">
-        <v>6458.732</v>
+        <v>3529.322</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6204,7 +6066,7 @@
         <v>44226.29166666666</v>
       </c>
       <c r="B705">
-        <v>6623.882000000001</v>
+        <v>3707.972</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6212,7 +6074,7 @@
         <v>44226.33333333334</v>
       </c>
       <c r="B706">
-        <v>6788.142000000001</v>
+        <v>3806.202</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6220,7 +6082,7 @@
         <v>44226.375</v>
       </c>
       <c r="B707">
-        <v>6875.612</v>
+        <v>3927.332</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6228,7 +6090,7 @@
         <v>44226.41666666666</v>
       </c>
       <c r="B708">
-        <v>6883.542</v>
+        <v>4042.972000000001</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6236,7 +6098,7 @@
         <v>44226.45833333334</v>
       </c>
       <c r="B709">
-        <v>6881.172</v>
+        <v>3888.932</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6244,7 +6106,7 @@
         <v>44226.5</v>
       </c>
       <c r="B710">
-        <v>6874.831999999999</v>
+        <v>3848.092000000001</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6252,7 +6114,7 @@
         <v>44226.54166666666</v>
       </c>
       <c r="B711">
-        <v>6871.762</v>
+        <v>3847.872</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6260,7 +6122,7 @@
         <v>44226.58333333334</v>
       </c>
       <c r="B712">
-        <v>6871.092</v>
+        <v>3847.042</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6268,7 +6130,7 @@
         <v>44226.625</v>
       </c>
       <c r="B713">
-        <v>6869.392000000001</v>
+        <v>3843.452</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6276,7 +6138,7 @@
         <v>44226.66666666666</v>
       </c>
       <c r="B714">
-        <v>6869.862</v>
+        <v>3733.232</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6284,7 +6146,7 @@
         <v>44226.70833333334</v>
       </c>
       <c r="B715">
-        <v>6882.742</v>
+        <v>3810.502</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6292,7 +6154,7 @@
         <v>44226.75</v>
       </c>
       <c r="B716">
-        <v>6904.452</v>
+        <v>4011.492</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6300,7 +6162,7 @@
         <v>44226.79166666666</v>
       </c>
       <c r="B717">
-        <v>6904.942</v>
+        <v>3828.512</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6308,7 +6170,7 @@
         <v>44226.83333333334</v>
       </c>
       <c r="B718">
-        <v>6894.362</v>
+        <v>3802.362</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6316,7 +6178,7 @@
         <v>44226.875</v>
       </c>
       <c r="B719">
-        <v>6877.692</v>
+        <v>3894.742</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6324,7 +6186,7 @@
         <v>44226.91666666666</v>
       </c>
       <c r="B720">
-        <v>6752.132000000001</v>
+        <v>3770.712</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6332,7 +6194,7 @@
         <v>44226.95833333334</v>
       </c>
       <c r="B721">
-        <v>6361.302000000001</v>
+        <v>3490.712</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6340,7 +6202,7 @@
         <v>44227</v>
       </c>
       <c r="B722">
-        <v>6277.632000000001</v>
+        <v>3203.042</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6348,7 +6210,7 @@
         <v>44227.04166666666</v>
       </c>
       <c r="B723">
-        <v>6246.742</v>
+        <v>3083.462</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6356,7 +6218,7 @@
         <v>44227.08333333334</v>
       </c>
       <c r="B724">
-        <v>6245.702</v>
+        <v>3050.152</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6364,7 +6226,7 @@
         <v>44227.125</v>
       </c>
       <c r="B725">
-        <v>6235.632000000001</v>
+        <v>3063.712</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6372,7 +6234,7 @@
         <v>44227.16666666666</v>
       </c>
       <c r="B726">
-        <v>6234.222000000001</v>
+        <v>3093.262</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6380,7 +6242,7 @@
         <v>44227.20833333334</v>
       </c>
       <c r="B727">
-        <v>6245.642000000001</v>
+        <v>3243.262</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6388,7 +6250,7 @@
         <v>44227.25</v>
       </c>
       <c r="B728">
-        <v>6260.302000000001</v>
+        <v>3579.022</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6396,7 +6258,7 @@
         <v>44227.29166666666</v>
       </c>
       <c r="B729">
-        <v>6319.892000000001</v>
+        <v>3700.662</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6404,7 +6266,7 @@
         <v>44227.33333333334</v>
       </c>
       <c r="B730">
-        <v>6628.472000000001</v>
+        <v>3789.162</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6412,7 +6274,7 @@
         <v>44227.375</v>
       </c>
       <c r="B731">
-        <v>6761.812</v>
+        <v>3837.152</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6420,7 +6282,7 @@
         <v>44227.41666666666</v>
       </c>
       <c r="B732">
-        <v>6780.292</v>
+        <v>3826.882000000001</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6428,7 +6290,7 @@
         <v>44227.45833333334</v>
       </c>
       <c r="B733">
-        <v>6781.082</v>
+        <v>3783.312</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6436,7 +6298,7 @@
         <v>44227.5</v>
       </c>
       <c r="B734">
-        <v>6774.052000000001</v>
+        <v>3789.332</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6444,7 +6306,7 @@
         <v>44227.54166666666</v>
       </c>
       <c r="B735">
-        <v>6767.972000000001</v>
+        <v>3771.882000000001</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6452,7 +6314,7 @@
         <v>44227.58333333334</v>
       </c>
       <c r="B736">
-        <v>6759.942</v>
+        <v>3771.712</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6460,7 +6322,7 @@
         <v>44227.625</v>
       </c>
       <c r="B737">
-        <v>6768.572</v>
+        <v>3765.652</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6468,7 +6330,7 @@
         <v>44227.66666666666</v>
       </c>
       <c r="B738">
-        <v>6776.282</v>
+        <v>3753.252</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6476,7 +6338,7 @@
         <v>44227.70833333334</v>
       </c>
       <c r="B739">
-        <v>6798.792</v>
+        <v>3771.942</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6484,7 +6346,7 @@
         <v>44227.75</v>
       </c>
       <c r="B740">
-        <v>6847.982</v>
+        <v>3827.762</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6492,7 +6354,7 @@
         <v>44227.79166666666</v>
       </c>
       <c r="B741">
-        <v>6846.472000000001</v>
+        <v>3815.642</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6500,7 +6362,7 @@
         <v>44227.83333333334</v>
       </c>
       <c r="B742">
-        <v>6837.832</v>
+        <v>3795.522</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6508,7 +6370,7 @@
         <v>44227.875</v>
       </c>
       <c r="B743">
-        <v>6823.472000000001</v>
+        <v>3752.822</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6516,7 +6378,7 @@
         <v>44227.91666666666</v>
       </c>
       <c r="B744">
-        <v>6755.662</v>
+        <v>3605.132000000001</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6524,7 +6386,7 @@
         <v>44227.95833333334</v>
       </c>
       <c r="B745">
-        <v>6324.872</v>
+        <v>3309.142</v>
       </c>
     </row>
   </sheetData>
